--- a/rtw_excel_report/report_purchase_order/purchase_order.xlsx
+++ b/rtw_excel_report/report_purchase_order/purchase_order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_purchase_order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF84B00-8771-452A-A5B7-0FA63C3B4E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4C00AA-B836-4E89-AB71-3AEE9B9F8726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{87026D75-22F8-4D72-BF0C-E712625044A4}"/>
+    <workbookView xWindow="4110" yWindow="645" windowWidth="17535" windowHeight="13710" xr2:uid="{87026D75-22F8-4D72-BF0C-E712625044A4}"/>
   </bookViews>
   <sheets>
     <sheet name="注文書" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -390,6 +390,12 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -766,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14C7CB3-6D80-465D-9733-A42AF6F1827F}">
   <dimension ref="A1:H1120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -864,7 +870,7 @@
       <c r="C7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="42"/>
       <c r="F7" s="40"/>
       <c r="G7" s="37" t="s">
@@ -877,7 +883,7 @@
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="52"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="42"/>
       <c r="F8" s="22" t="s">
         <v>24</v>
@@ -889,7 +895,7 @@
       <c r="A9" s="43"/>
       <c r="B9" s="44"/>
       <c r="C9" s="45"/>
-      <c r="D9" s="52"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="42"/>
       <c r="F9" s="40"/>
       <c r="G9" s="19"/>
@@ -901,7 +907,7 @@
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="45"/>
-      <c r="D10" s="52"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="42"/>
       <c r="F10" s="22" t="s">
         <v>25</v>
@@ -915,7 +921,7 @@
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="45"/>
-      <c r="D11" s="52"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="42"/>
       <c r="F11" s="23"/>
       <c r="G11" s="19"/>
@@ -958,37 +964,37 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="53" t="s">
+      <c r="G15" s="55" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -996,7 +1002,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="51"/>
-      <c r="C17" s="33"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="51"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
@@ -1007,7 +1013,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="51"/>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="51"/>
@@ -1020,7 +1026,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="51"/>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="51"/>
@@ -1033,7 +1039,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="51"/>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="51"/>
@@ -1046,7 +1052,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="51"/>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="51"/>
@@ -1059,7 +1065,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="51"/>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="51"/>
@@ -1072,7 +1078,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="51"/>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="51"/>
@@ -1085,7 +1091,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="51"/>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="51"/>
@@ -1098,7 +1104,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="51"/>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="51"/>
@@ -1111,7 +1117,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="51"/>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="51"/>
@@ -1124,7 +1130,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="51"/>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="51"/>
@@ -1137,7 +1143,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="51"/>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="51"/>
@@ -1150,7 +1156,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="51"/>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="51"/>
@@ -1163,7 +1169,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="51"/>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="51"/>
@@ -1176,7 +1182,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="51"/>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="51"/>
@@ -1189,7 +1195,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="51"/>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="51"/>
@@ -1202,7 +1208,7 @@
         <v>19</v>
       </c>
       <c r="B33" s="51"/>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="51"/>
@@ -1215,7 +1221,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="51"/>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D34" s="51"/>
@@ -1228,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="B35" s="51"/>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="51"/>
@@ -1241,7 +1247,7 @@
         <v>19</v>
       </c>
       <c r="B36" s="51"/>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D36" s="51"/>
@@ -1254,7 +1260,7 @@
         <v>19</v>
       </c>
       <c r="B37" s="51"/>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="51"/>
@@ -1267,7 +1273,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="51"/>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="51"/>
@@ -1280,7 +1286,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="51"/>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D39" s="51"/>
@@ -1293,7 +1299,7 @@
         <v>19</v>
       </c>
       <c r="B40" s="51"/>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="51"/>
@@ -1306,7 +1312,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="51"/>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="51"/>
@@ -1319,7 +1325,7 @@
         <v>19</v>
       </c>
       <c r="B42" s="51"/>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="51"/>
@@ -1332,7 +1338,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="51"/>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="51"/>
@@ -1345,7 +1351,7 @@
         <v>19</v>
       </c>
       <c r="B44" s="51"/>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="51"/>
@@ -1358,7 +1364,7 @@
         <v>19</v>
       </c>
       <c r="B45" s="51"/>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="51"/>
@@ -1371,7 +1377,7 @@
         <v>19</v>
       </c>
       <c r="B46" s="51"/>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="51"/>
@@ -1382,7 +1388,7 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="34"/>
       <c r="B47" s="51"/>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="51"/>
@@ -1395,7 +1401,7 @@
         <v>19</v>
       </c>
       <c r="B48" s="51"/>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="51"/>
@@ -1408,7 +1414,7 @@
         <v>19</v>
       </c>
       <c r="B49" s="51"/>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="51"/>
@@ -1421,7 +1427,7 @@
         <v>19</v>
       </c>
       <c r="B50" s="51"/>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="51"/>
@@ -1434,7 +1440,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="51"/>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="51"/>
@@ -1447,7 +1453,7 @@
         <v>19</v>
       </c>
       <c r="B52" s="51"/>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="51"/>
@@ -1460,7 +1466,7 @@
         <v>19</v>
       </c>
       <c r="B53" s="51"/>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="51"/>
@@ -1473,7 +1479,7 @@
         <v>19</v>
       </c>
       <c r="B54" s="51"/>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="51"/>
@@ -1486,7 +1492,7 @@
         <v>19</v>
       </c>
       <c r="B55" s="51"/>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="51"/>
@@ -1499,7 +1505,7 @@
         <v>19</v>
       </c>
       <c r="B56" s="51"/>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="51"/>
@@ -1512,7 +1518,7 @@
         <v>19</v>
       </c>
       <c r="B57" s="51"/>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="51"/>
@@ -1525,7 +1531,7 @@
         <v>19</v>
       </c>
       <c r="B58" s="51"/>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="51"/>
@@ -1538,7 +1544,7 @@
         <v>19</v>
       </c>
       <c r="B59" s="51"/>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="51"/>
@@ -1551,7 +1557,7 @@
         <v>19</v>
       </c>
       <c r="B60" s="51"/>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D60" s="51"/>
@@ -1564,7 +1570,7 @@
         <v>19</v>
       </c>
       <c r="B61" s="51"/>
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D61" s="51"/>
@@ -1577,7 +1583,7 @@
         <v>19</v>
       </c>
       <c r="B62" s="51"/>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D62" s="51"/>
@@ -1590,7 +1596,7 @@
         <v>19</v>
       </c>
       <c r="B63" s="51"/>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="51"/>
@@ -1603,7 +1609,7 @@
         <v>19</v>
       </c>
       <c r="B64" s="51"/>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="51"/>
@@ -1616,7 +1622,7 @@
         <v>19</v>
       </c>
       <c r="B65" s="51"/>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="51"/>
@@ -1629,7 +1635,7 @@
         <v>19</v>
       </c>
       <c r="B66" s="51"/>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D66" s="51"/>
@@ -1642,7 +1648,7 @@
         <v>19</v>
       </c>
       <c r="B67" s="51"/>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="51"/>
@@ -1655,7 +1661,7 @@
         <v>19</v>
       </c>
       <c r="B68" s="51"/>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D68" s="51"/>
@@ -1668,7 +1674,7 @@
         <v>19</v>
       </c>
       <c r="B69" s="51"/>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="51"/>
@@ -1681,7 +1687,7 @@
         <v>19</v>
       </c>
       <c r="B70" s="51"/>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D70" s="51"/>
@@ -1694,7 +1700,7 @@
         <v>19</v>
       </c>
       <c r="B71" s="51"/>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="51"/>
@@ -1707,7 +1713,7 @@
         <v>19</v>
       </c>
       <c r="B72" s="51"/>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="51"/>
@@ -1720,7 +1726,7 @@
         <v>19</v>
       </c>
       <c r="B73" s="51"/>
-      <c r="C73" s="33" t="s">
+      <c r="C73" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="51"/>
@@ -1733,7 +1739,7 @@
         <v>19</v>
       </c>
       <c r="B74" s="51"/>
-      <c r="C74" s="31" t="s">
+      <c r="C74" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="51"/>
@@ -1746,7 +1752,7 @@
         <v>19</v>
       </c>
       <c r="B75" s="51"/>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="51"/>
@@ -1759,7 +1765,7 @@
         <v>19</v>
       </c>
       <c r="B76" s="51"/>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D76" s="51"/>
@@ -1772,7 +1778,7 @@
         <v>19</v>
       </c>
       <c r="B77" s="51"/>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D77" s="51"/>
@@ -1783,7 +1789,7 @@
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="34"/>
       <c r="B78" s="51"/>
-      <c r="C78" s="31" t="s">
+      <c r="C78" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D78" s="51"/>
@@ -1796,7 +1802,7 @@
         <v>19</v>
       </c>
       <c r="B79" s="51"/>
-      <c r="C79" s="31" t="s">
+      <c r="C79" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D79" s="51"/>
@@ -1809,7 +1815,7 @@
         <v>19</v>
       </c>
       <c r="B80" s="51"/>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="51"/>
@@ -1822,7 +1828,7 @@
         <v>19</v>
       </c>
       <c r="B81" s="51"/>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D81" s="51"/>
@@ -1835,7 +1841,7 @@
         <v>19</v>
       </c>
       <c r="B82" s="51"/>
-      <c r="C82" s="31" t="s">
+      <c r="C82" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D82" s="51"/>
@@ -1848,7 +1854,7 @@
         <v>19</v>
       </c>
       <c r="B83" s="51"/>
-      <c r="C83" s="33" t="s">
+      <c r="C83" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D83" s="51"/>
@@ -1861,7 +1867,7 @@
         <v>19</v>
       </c>
       <c r="B84" s="51"/>
-      <c r="C84" s="33" t="s">
+      <c r="C84" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D84" s="51"/>
@@ -1874,7 +1880,7 @@
         <v>19</v>
       </c>
       <c r="B85" s="51"/>
-      <c r="C85" s="31" t="s">
+      <c r="C85" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D85" s="51"/>
@@ -1887,7 +1893,7 @@
         <v>19</v>
       </c>
       <c r="B86" s="51"/>
-      <c r="C86" s="31" t="s">
+      <c r="C86" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D86" s="51"/>
@@ -1900,7 +1906,7 @@
         <v>19</v>
       </c>
       <c r="B87" s="51"/>
-      <c r="C87" s="31" t="s">
+      <c r="C87" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D87" s="51"/>
@@ -1913,7 +1919,7 @@
         <v>19</v>
       </c>
       <c r="B88" s="51"/>
-      <c r="C88" s="31" t="s">
+      <c r="C88" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D88" s="51"/>
@@ -1926,7 +1932,7 @@
         <v>19</v>
       </c>
       <c r="B89" s="51"/>
-      <c r="C89" s="31" t="s">
+      <c r="C89" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="51"/>
@@ -1939,7 +1945,7 @@
         <v>19</v>
       </c>
       <c r="B90" s="51"/>
-      <c r="C90" s="31" t="s">
+      <c r="C90" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D90" s="51"/>
@@ -1952,7 +1958,7 @@
         <v>19</v>
       </c>
       <c r="B91" s="51"/>
-      <c r="C91" s="31" t="s">
+      <c r="C91" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="51"/>
@@ -1965,7 +1971,7 @@
         <v>19</v>
       </c>
       <c r="B92" s="51"/>
-      <c r="C92" s="31" t="s">
+      <c r="C92" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D92" s="51"/>
@@ -1978,7 +1984,7 @@
         <v>19</v>
       </c>
       <c r="B93" s="51"/>
-      <c r="C93" s="31" t="s">
+      <c r="C93" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D93" s="51"/>
@@ -1991,7 +1997,7 @@
         <v>19</v>
       </c>
       <c r="B94" s="51"/>
-      <c r="C94" s="33" t="s">
+      <c r="C94" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D94" s="51"/>
@@ -2004,7 +2010,7 @@
         <v>19</v>
       </c>
       <c r="B95" s="51"/>
-      <c r="C95" s="33" t="s">
+      <c r="C95" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D95" s="51"/>
@@ -2017,7 +2023,7 @@
         <v>19</v>
       </c>
       <c r="B96" s="51"/>
-      <c r="C96" s="31" t="s">
+      <c r="C96" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="51"/>
@@ -2030,7 +2036,7 @@
         <v>19</v>
       </c>
       <c r="B97" s="51"/>
-      <c r="C97" s="31" t="s">
+      <c r="C97" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D97" s="51"/>
@@ -2043,7 +2049,7 @@
         <v>19</v>
       </c>
       <c r="B98" s="51"/>
-      <c r="C98" s="31" t="s">
+      <c r="C98" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D98" s="51"/>
@@ -2056,7 +2062,7 @@
         <v>19</v>
       </c>
       <c r="B99" s="51"/>
-      <c r="C99" s="31" t="s">
+      <c r="C99" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="51"/>
@@ -2069,7 +2075,7 @@
         <v>19</v>
       </c>
       <c r="B100" s="51"/>
-      <c r="C100" s="31" t="s">
+      <c r="C100" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D100" s="51"/>
@@ -2082,7 +2088,7 @@
         <v>19</v>
       </c>
       <c r="B101" s="51"/>
-      <c r="C101" s="31" t="s">
+      <c r="C101" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D101" s="51"/>
@@ -2095,7 +2101,7 @@
         <v>19</v>
       </c>
       <c r="B102" s="51"/>
-      <c r="C102" s="31" t="s">
+      <c r="C102" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D102" s="51"/>
@@ -2108,7 +2114,7 @@
         <v>19</v>
       </c>
       <c r="B103" s="51"/>
-      <c r="C103" s="31" t="s">
+      <c r="C103" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D103" s="51"/>
@@ -2121,7 +2127,7 @@
         <v>19</v>
       </c>
       <c r="B104" s="51"/>
-      <c r="C104" s="31" t="s">
+      <c r="C104" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D104" s="51"/>
@@ -2134,7 +2140,7 @@
         <v>19</v>
       </c>
       <c r="B105" s="51"/>
-      <c r="C105" s="33" t="s">
+      <c r="C105" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="51"/>
@@ -2147,7 +2153,7 @@
         <v>19</v>
       </c>
       <c r="B106" s="51"/>
-      <c r="C106" s="33" t="s">
+      <c r="C106" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D106" s="51"/>
@@ -2160,7 +2166,7 @@
         <v>19</v>
       </c>
       <c r="B107" s="51"/>
-      <c r="C107" s="31" t="s">
+      <c r="C107" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D107" s="51"/>
@@ -2173,7 +2179,7 @@
         <v>19</v>
       </c>
       <c r="B108" s="51"/>
-      <c r="C108" s="31" t="s">
+      <c r="C108" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="51"/>
@@ -2184,7 +2190,7 @@
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="34"/>
       <c r="B109" s="51"/>
-      <c r="C109" s="31" t="s">
+      <c r="C109" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D109" s="51"/>
@@ -2197,7 +2203,7 @@
         <v>19</v>
       </c>
       <c r="B110" s="51"/>
-      <c r="C110" s="31" t="s">
+      <c r="C110" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D110" s="51"/>
@@ -2210,7 +2216,7 @@
         <v>19</v>
       </c>
       <c r="B111" s="51"/>
-      <c r="C111" s="31" t="s">
+      <c r="C111" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D111" s="51"/>
@@ -2223,7 +2229,7 @@
         <v>19</v>
       </c>
       <c r="B112" s="51"/>
-      <c r="C112" s="31" t="s">
+      <c r="C112" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D112" s="51"/>
@@ -2236,7 +2242,7 @@
         <v>19</v>
       </c>
       <c r="B113" s="51"/>
-      <c r="C113" s="31" t="s">
+      <c r="C113" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D113" s="51"/>
@@ -2249,7 +2255,7 @@
         <v>19</v>
       </c>
       <c r="B114" s="51"/>
-      <c r="C114" s="31" t="s">
+      <c r="C114" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D114" s="51"/>
@@ -2262,7 +2268,7 @@
         <v>19</v>
       </c>
       <c r="B115" s="51"/>
-      <c r="C115" s="31" t="s">
+      <c r="C115" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D115" s="51"/>
@@ -2275,7 +2281,7 @@
         <v>19</v>
       </c>
       <c r="B116" s="51"/>
-      <c r="C116" s="33" t="s">
+      <c r="C116" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D116" s="51"/>
@@ -2288,7 +2294,7 @@
         <v>19</v>
       </c>
       <c r="B117" s="51"/>
-      <c r="C117" s="33" t="s">
+      <c r="C117" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D117" s="51"/>
@@ -2301,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B118" s="51"/>
-      <c r="C118" s="31" t="s">
+      <c r="C118" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D118" s="51"/>
@@ -2314,7 +2320,7 @@
         <v>19</v>
       </c>
       <c r="B119" s="51"/>
-      <c r="C119" s="31" t="s">
+      <c r="C119" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D119" s="51"/>
@@ -2327,7 +2333,7 @@
         <v>19</v>
       </c>
       <c r="B120" s="51"/>
-      <c r="C120" s="31" t="s">
+      <c r="C120" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D120" s="51"/>
@@ -2340,7 +2346,7 @@
         <v>19</v>
       </c>
       <c r="B121" s="51"/>
-      <c r="C121" s="31" t="s">
+      <c r="C121" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D121" s="51"/>
@@ -2353,7 +2359,7 @@
         <v>19</v>
       </c>
       <c r="B122" s="51"/>
-      <c r="C122" s="31" t="s">
+      <c r="C122" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D122" s="51"/>
@@ -2366,7 +2372,7 @@
         <v>19</v>
       </c>
       <c r="B123" s="51"/>
-      <c r="C123" s="31" t="s">
+      <c r="C123" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="51"/>
@@ -2379,7 +2385,7 @@
         <v>19</v>
       </c>
       <c r="B124" s="51"/>
-      <c r="C124" s="31" t="s">
+      <c r="C124" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D124" s="51"/>
@@ -2392,7 +2398,7 @@
         <v>19</v>
       </c>
       <c r="B125" s="51"/>
-      <c r="C125" s="31" t="s">
+      <c r="C125" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D125" s="51"/>
@@ -2405,7 +2411,7 @@
         <v>19</v>
       </c>
       <c r="B126" s="51"/>
-      <c r="C126" s="31" t="s">
+      <c r="C126" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D126" s="51"/>
@@ -2418,7 +2424,7 @@
         <v>19</v>
       </c>
       <c r="B127" s="51"/>
-      <c r="C127" s="33" t="s">
+      <c r="C127" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D127" s="51"/>
@@ -2431,7 +2437,7 @@
         <v>19</v>
       </c>
       <c r="B128" s="51"/>
-      <c r="C128" s="33" t="s">
+      <c r="C128" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D128" s="51"/>
@@ -2444,7 +2450,7 @@
         <v>19</v>
       </c>
       <c r="B129" s="51"/>
-      <c r="C129" s="31" t="s">
+      <c r="C129" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D129" s="51"/>
@@ -2457,7 +2463,7 @@
         <v>19</v>
       </c>
       <c r="B130" s="51"/>
-      <c r="C130" s="31" t="s">
+      <c r="C130" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D130" s="51"/>
@@ -2470,7 +2476,7 @@
         <v>19</v>
       </c>
       <c r="B131" s="51"/>
-      <c r="C131" s="31" t="s">
+      <c r="C131" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D131" s="51"/>
@@ -2483,7 +2489,7 @@
         <v>19</v>
       </c>
       <c r="B132" s="51"/>
-      <c r="C132" s="31" t="s">
+      <c r="C132" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D132" s="51"/>
@@ -2496,7 +2502,7 @@
         <v>19</v>
       </c>
       <c r="B133" s="51"/>
-      <c r="C133" s="31" t="s">
+      <c r="C133" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D133" s="51"/>
@@ -2509,7 +2515,7 @@
         <v>19</v>
       </c>
       <c r="B134" s="51"/>
-      <c r="C134" s="31" t="s">
+      <c r="C134" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D134" s="51"/>
@@ -2522,7 +2528,7 @@
         <v>19</v>
       </c>
       <c r="B135" s="51"/>
-      <c r="C135" s="31" t="s">
+      <c r="C135" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D135" s="51"/>
@@ -2535,7 +2541,7 @@
         <v>19</v>
       </c>
       <c r="B136" s="51"/>
-      <c r="C136" s="31" t="s">
+      <c r="C136" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D136" s="51"/>
@@ -2548,7 +2554,7 @@
         <v>19</v>
       </c>
       <c r="B137" s="51"/>
-      <c r="C137" s="31" t="s">
+      <c r="C137" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D137" s="51"/>
@@ -2561,7 +2567,7 @@
         <v>19</v>
       </c>
       <c r="B138" s="51"/>
-      <c r="C138" s="33" t="s">
+      <c r="C138" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D138" s="51"/>
@@ -2574,7 +2580,7 @@
         <v>19</v>
       </c>
       <c r="B139" s="51"/>
-      <c r="C139" s="33" t="s">
+      <c r="C139" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D139" s="51"/>
@@ -2585,7 +2591,7 @@
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="34"/>
       <c r="B140" s="51"/>
-      <c r="C140" s="31" t="s">
+      <c r="C140" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D140" s="51"/>
@@ -2598,7 +2604,7 @@
         <v>19</v>
       </c>
       <c r="B141" s="51"/>
-      <c r="C141" s="31" t="s">
+      <c r="C141" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D141" s="51"/>
@@ -2611,7 +2617,7 @@
         <v>19</v>
       </c>
       <c r="B142" s="51"/>
-      <c r="C142" s="31" t="s">
+      <c r="C142" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D142" s="51"/>
@@ -2624,7 +2630,7 @@
         <v>19</v>
       </c>
       <c r="B143" s="51"/>
-      <c r="C143" s="31" t="s">
+      <c r="C143" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D143" s="51"/>
@@ -2637,7 +2643,7 @@
         <v>19</v>
       </c>
       <c r="B144" s="51"/>
-      <c r="C144" s="31" t="s">
+      <c r="C144" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D144" s="51"/>
@@ -2650,7 +2656,7 @@
         <v>19</v>
       </c>
       <c r="B145" s="51"/>
-      <c r="C145" s="31" t="s">
+      <c r="C145" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D145" s="51"/>
@@ -2663,7 +2669,7 @@
         <v>19</v>
       </c>
       <c r="B146" s="51"/>
-      <c r="C146" s="31" t="s">
+      <c r="C146" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D146" s="51"/>
@@ -2676,7 +2682,7 @@
         <v>19</v>
       </c>
       <c r="B147" s="51"/>
-      <c r="C147" s="31" t="s">
+      <c r="C147" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D147" s="51"/>
@@ -2689,7 +2695,7 @@
         <v>19</v>
       </c>
       <c r="B148" s="51"/>
-      <c r="C148" s="31" t="s">
+      <c r="C148" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D148" s="51"/>
@@ -2702,7 +2708,7 @@
         <v>19</v>
       </c>
       <c r="B149" s="51"/>
-      <c r="C149" s="33" t="s">
+      <c r="C149" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D149" s="51"/>
@@ -2715,7 +2721,7 @@
         <v>19</v>
       </c>
       <c r="B150" s="51"/>
-      <c r="C150" s="33" t="s">
+      <c r="C150" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D150" s="51"/>
@@ -2728,7 +2734,7 @@
         <v>19</v>
       </c>
       <c r="B151" s="51"/>
-      <c r="C151" s="31" t="s">
+      <c r="C151" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D151" s="51"/>
@@ -2741,7 +2747,7 @@
         <v>19</v>
       </c>
       <c r="B152" s="51"/>
-      <c r="C152" s="31" t="s">
+      <c r="C152" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D152" s="51"/>
@@ -2754,7 +2760,7 @@
         <v>19</v>
       </c>
       <c r="B153" s="51"/>
-      <c r="C153" s="31" t="s">
+      <c r="C153" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D153" s="51"/>
@@ -2767,7 +2773,7 @@
         <v>19</v>
       </c>
       <c r="B154" s="51"/>
-      <c r="C154" s="31" t="s">
+      <c r="C154" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D154" s="51"/>
@@ -2780,7 +2786,7 @@
         <v>19</v>
       </c>
       <c r="B155" s="51"/>
-      <c r="C155" s="31" t="s">
+      <c r="C155" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D155" s="51"/>
@@ -2793,7 +2799,7 @@
         <v>19</v>
       </c>
       <c r="B156" s="51"/>
-      <c r="C156" s="31" t="s">
+      <c r="C156" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D156" s="51"/>
@@ -2806,7 +2812,7 @@
         <v>19</v>
       </c>
       <c r="B157" s="51"/>
-      <c r="C157" s="31" t="s">
+      <c r="C157" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D157" s="51"/>
@@ -2819,7 +2825,7 @@
         <v>19</v>
       </c>
       <c r="B158" s="51"/>
-      <c r="C158" s="31" t="s">
+      <c r="C158" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D158" s="51"/>
@@ -2832,7 +2838,7 @@
         <v>19</v>
       </c>
       <c r="B159" s="51"/>
-      <c r="C159" s="31" t="s">
+      <c r="C159" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D159" s="51"/>
@@ -2845,7 +2851,7 @@
         <v>19</v>
       </c>
       <c r="B160" s="51"/>
-      <c r="C160" s="33" t="s">
+      <c r="C160" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D160" s="51"/>
@@ -2858,7 +2864,7 @@
         <v>19</v>
       </c>
       <c r="B161" s="51"/>
-      <c r="C161" s="33" t="s">
+      <c r="C161" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D161" s="51"/>
@@ -2871,7 +2877,7 @@
         <v>19</v>
       </c>
       <c r="B162" s="51"/>
-      <c r="C162" s="31" t="s">
+      <c r="C162" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D162" s="51"/>
@@ -2884,7 +2890,7 @@
         <v>19</v>
       </c>
       <c r="B163" s="51"/>
-      <c r="C163" s="31" t="s">
+      <c r="C163" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D163" s="51"/>
@@ -2897,7 +2903,7 @@
         <v>19</v>
       </c>
       <c r="B164" s="51"/>
-      <c r="C164" s="31" t="s">
+      <c r="C164" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D164" s="51"/>
@@ -2910,7 +2916,7 @@
         <v>19</v>
       </c>
       <c r="B165" s="51"/>
-      <c r="C165" s="31" t="s">
+      <c r="C165" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D165" s="51"/>
@@ -2923,7 +2929,7 @@
         <v>19</v>
       </c>
       <c r="B166" s="51"/>
-      <c r="C166" s="31" t="s">
+      <c r="C166" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D166" s="51"/>
@@ -2936,7 +2942,7 @@
         <v>19</v>
       </c>
       <c r="B167" s="51"/>
-      <c r="C167" s="31" t="s">
+      <c r="C167" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D167" s="51"/>
@@ -2949,7 +2955,7 @@
         <v>19</v>
       </c>
       <c r="B168" s="51"/>
-      <c r="C168" s="31" t="s">
+      <c r="C168" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D168" s="51"/>
@@ -2962,7 +2968,7 @@
         <v>19</v>
       </c>
       <c r="B169" s="51"/>
-      <c r="C169" s="31" t="s">
+      <c r="C169" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D169" s="51"/>
@@ -2975,7 +2981,7 @@
         <v>19</v>
       </c>
       <c r="B170" s="51"/>
-      <c r="C170" s="31" t="s">
+      <c r="C170" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D170" s="51"/>
@@ -2986,7 +2992,7 @@
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="34"/>
       <c r="B171" s="51"/>
-      <c r="C171" s="33" t="s">
+      <c r="C171" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D171" s="51"/>
@@ -2999,7 +3005,7 @@
         <v>19</v>
       </c>
       <c r="B172" s="51"/>
-      <c r="C172" s="33" t="s">
+      <c r="C172" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D172" s="51"/>
@@ -3012,7 +3018,7 @@
         <v>19</v>
       </c>
       <c r="B173" s="51"/>
-      <c r="C173" s="31" t="s">
+      <c r="C173" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D173" s="51"/>
@@ -3025,7 +3031,7 @@
         <v>19</v>
       </c>
       <c r="B174" s="51"/>
-      <c r="C174" s="31" t="s">
+      <c r="C174" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D174" s="51"/>
@@ -3038,7 +3044,7 @@
         <v>19</v>
       </c>
       <c r="B175" s="51"/>
-      <c r="C175" s="31" t="s">
+      <c r="C175" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D175" s="51"/>
@@ -3051,7 +3057,7 @@
         <v>19</v>
       </c>
       <c r="B176" s="51"/>
-      <c r="C176" s="31" t="s">
+      <c r="C176" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D176" s="51"/>
@@ -3064,7 +3070,7 @@
         <v>19</v>
       </c>
       <c r="B177" s="51"/>
-      <c r="C177" s="31" t="s">
+      <c r="C177" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D177" s="51"/>
@@ -3077,7 +3083,7 @@
         <v>19</v>
       </c>
       <c r="B178" s="51"/>
-      <c r="C178" s="31" t="s">
+      <c r="C178" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D178" s="51"/>
@@ -3090,7 +3096,7 @@
         <v>19</v>
       </c>
       <c r="B179" s="51"/>
-      <c r="C179" s="31" t="s">
+      <c r="C179" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D179" s="51"/>
@@ -3103,7 +3109,7 @@
         <v>19</v>
       </c>
       <c r="B180" s="51"/>
-      <c r="C180" s="31" t="s">
+      <c r="C180" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D180" s="51"/>
@@ -3116,7 +3122,7 @@
         <v>19</v>
       </c>
       <c r="B181" s="51"/>
-      <c r="C181" s="31" t="s">
+      <c r="C181" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D181" s="51"/>
@@ -3129,7 +3135,7 @@
         <v>19</v>
       </c>
       <c r="B182" s="51"/>
-      <c r="C182" s="33" t="s">
+      <c r="C182" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D182" s="51"/>
@@ -3142,7 +3148,7 @@
         <v>19</v>
       </c>
       <c r="B183" s="51"/>
-      <c r="C183" s="33" t="s">
+      <c r="C183" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D183" s="51"/>
@@ -3155,7 +3161,7 @@
         <v>19</v>
       </c>
       <c r="B184" s="51"/>
-      <c r="C184" s="31" t="s">
+      <c r="C184" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D184" s="51"/>
@@ -3168,7 +3174,7 @@
         <v>19</v>
       </c>
       <c r="B185" s="51"/>
-      <c r="C185" s="31" t="s">
+      <c r="C185" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D185" s="51"/>
@@ -3181,7 +3187,7 @@
         <v>19</v>
       </c>
       <c r="B186" s="51"/>
-      <c r="C186" s="31" t="s">
+      <c r="C186" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D186" s="51"/>
@@ -3194,7 +3200,7 @@
         <v>19</v>
       </c>
       <c r="B187" s="51"/>
-      <c r="C187" s="31" t="s">
+      <c r="C187" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D187" s="51"/>
@@ -3207,7 +3213,7 @@
         <v>19</v>
       </c>
       <c r="B188" s="51"/>
-      <c r="C188" s="31" t="s">
+      <c r="C188" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D188" s="51"/>
@@ -3220,7 +3226,7 @@
         <v>19</v>
       </c>
       <c r="B189" s="51"/>
-      <c r="C189" s="31" t="s">
+      <c r="C189" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D189" s="51"/>
@@ -3233,7 +3239,7 @@
         <v>19</v>
       </c>
       <c r="B190" s="51"/>
-      <c r="C190" s="31" t="s">
+      <c r="C190" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D190" s="51"/>
@@ -3246,7 +3252,7 @@
         <v>19</v>
       </c>
       <c r="B191" s="51"/>
-      <c r="C191" s="31" t="s">
+      <c r="C191" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D191" s="51"/>
@@ -3259,7 +3265,7 @@
         <v>19</v>
       </c>
       <c r="B192" s="51"/>
-      <c r="C192" s="31" t="s">
+      <c r="C192" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D192" s="51"/>
@@ -3272,7 +3278,7 @@
         <v>19</v>
       </c>
       <c r="B193" s="51"/>
-      <c r="C193" s="33" t="s">
+      <c r="C193" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D193" s="51"/>
@@ -3285,7 +3291,7 @@
         <v>19</v>
       </c>
       <c r="B194" s="51"/>
-      <c r="C194" s="33" t="s">
+      <c r="C194" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D194" s="51"/>
@@ -3298,7 +3304,7 @@
         <v>19</v>
       </c>
       <c r="B195" s="51"/>
-      <c r="C195" s="31" t="s">
+      <c r="C195" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D195" s="51"/>
@@ -3311,7 +3317,7 @@
         <v>19</v>
       </c>
       <c r="B196" s="51"/>
-      <c r="C196" s="31" t="s">
+      <c r="C196" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D196" s="51"/>
@@ -3324,7 +3330,7 @@
         <v>19</v>
       </c>
       <c r="B197" s="51"/>
-      <c r="C197" s="31" t="s">
+      <c r="C197" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D197" s="51"/>
@@ -3337,7 +3343,7 @@
         <v>19</v>
       </c>
       <c r="B198" s="51"/>
-      <c r="C198" s="31" t="s">
+      <c r="C198" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D198" s="51"/>
@@ -3350,7 +3356,7 @@
         <v>19</v>
       </c>
       <c r="B199" s="51"/>
-      <c r="C199" s="31" t="s">
+      <c r="C199" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D199" s="51"/>
@@ -3363,7 +3369,7 @@
         <v>19</v>
       </c>
       <c r="B200" s="51"/>
-      <c r="C200" s="31" t="s">
+      <c r="C200" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D200" s="51"/>
@@ -3376,7 +3382,7 @@
         <v>19</v>
       </c>
       <c r="B201" s="51"/>
-      <c r="C201" s="31" t="s">
+      <c r="C201" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D201" s="51"/>
@@ -3389,7 +3395,7 @@
         <v>19</v>
       </c>
       <c r="B202" s="51"/>
-      <c r="C202" s="31" t="s">
+      <c r="C202" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D202" s="51"/>
@@ -3402,7 +3408,7 @@
         <v>19</v>
       </c>
       <c r="B203" s="51"/>
-      <c r="C203" s="31" t="s">
+      <c r="C203" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D203" s="51"/>
@@ -3415,7 +3421,7 @@
         <v>19</v>
       </c>
       <c r="B204" s="51"/>
-      <c r="C204" s="33" t="s">
+      <c r="C204" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D204" s="51"/>
@@ -3428,7 +3434,7 @@
         <v>19</v>
       </c>
       <c r="B205" s="51"/>
-      <c r="C205" s="33" t="s">
+      <c r="C205" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D205" s="51"/>
@@ -3441,7 +3447,7 @@
         <v>19</v>
       </c>
       <c r="B206" s="51"/>
-      <c r="C206" s="31" t="s">
+      <c r="C206" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D206" s="51"/>
@@ -3454,7 +3460,7 @@
         <v>19</v>
       </c>
       <c r="B207" s="51"/>
-      <c r="C207" s="31" t="s">
+      <c r="C207" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D207" s="51"/>
@@ -3467,7 +3473,7 @@
         <v>19</v>
       </c>
       <c r="B208" s="51"/>
-      <c r="C208" s="31" t="s">
+      <c r="C208" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D208" s="51"/>
@@ -3480,7 +3486,7 @@
         <v>19</v>
       </c>
       <c r="B209" s="51"/>
-      <c r="C209" s="31" t="s">
+      <c r="C209" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D209" s="51"/>
@@ -3493,7 +3499,7 @@
         <v>19</v>
       </c>
       <c r="B210" s="51"/>
-      <c r="C210" s="31" t="s">
+      <c r="C210" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D210" s="51"/>
@@ -3506,7 +3512,7 @@
         <v>19</v>
       </c>
       <c r="B211" s="51"/>
-      <c r="C211" s="31" t="s">
+      <c r="C211" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D211" s="51"/>
@@ -3519,7 +3525,7 @@
         <v>19</v>
       </c>
       <c r="B212" s="51"/>
-      <c r="C212" s="31" t="s">
+      <c r="C212" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D212" s="51"/>
@@ -3532,7 +3538,7 @@
         <v>19</v>
       </c>
       <c r="B213" s="51"/>
-      <c r="C213" s="31" t="s">
+      <c r="C213" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D213" s="51"/>
@@ -3545,7 +3551,7 @@
         <v>19</v>
       </c>
       <c r="B214" s="51"/>
-      <c r="C214" s="31" t="s">
+      <c r="C214" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D214" s="51"/>
@@ -3558,7 +3564,7 @@
         <v>19</v>
       </c>
       <c r="B215" s="51"/>
-      <c r="C215" s="33" t="s">
+      <c r="C215" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D215" s="51"/>
@@ -3571,7 +3577,7 @@
         <v>19</v>
       </c>
       <c r="B216" s="51"/>
-      <c r="C216" s="33" t="s">
+      <c r="C216" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D216" s="51"/>
@@ -3584,7 +3590,7 @@
         <v>19</v>
       </c>
       <c r="B217" s="51"/>
-      <c r="C217" s="31" t="s">
+      <c r="C217" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D217" s="51"/>
@@ -3597,7 +3603,7 @@
         <v>19</v>
       </c>
       <c r="B218" s="51"/>
-      <c r="C218" s="31" t="s">
+      <c r="C218" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D218" s="51"/>
@@ -3610,7 +3616,7 @@
         <v>19</v>
       </c>
       <c r="B219" s="51"/>
-      <c r="C219" s="31" t="s">
+      <c r="C219" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D219" s="51"/>
@@ -3623,7 +3629,7 @@
         <v>19</v>
       </c>
       <c r="B220" s="51"/>
-      <c r="C220" s="31" t="s">
+      <c r="C220" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D220" s="51"/>
@@ -3636,7 +3642,7 @@
         <v>19</v>
       </c>
       <c r="B221" s="51"/>
-      <c r="C221" s="31" t="s">
+      <c r="C221" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D221" s="51"/>
@@ -3649,7 +3655,7 @@
         <v>19</v>
       </c>
       <c r="B222" s="51"/>
-      <c r="C222" s="31" t="s">
+      <c r="C222" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D222" s="51"/>
@@ -3662,7 +3668,7 @@
         <v>19</v>
       </c>
       <c r="B223" s="51"/>
-      <c r="C223" s="31" t="s">
+      <c r="C223" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D223" s="51"/>
@@ -3675,7 +3681,7 @@
         <v>19</v>
       </c>
       <c r="B224" s="51"/>
-      <c r="C224" s="31" t="s">
+      <c r="C224" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D224" s="51"/>
@@ -3688,7 +3694,7 @@
         <v>19</v>
       </c>
       <c r="B225" s="51"/>
-      <c r="C225" s="31" t="s">
+      <c r="C225" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D225" s="51"/>
@@ -3701,7 +3707,7 @@
         <v>19</v>
       </c>
       <c r="B226" s="51"/>
-      <c r="C226" s="33" t="s">
+      <c r="C226" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D226" s="51"/>
@@ -3714,7 +3720,7 @@
         <v>19</v>
       </c>
       <c r="B227" s="51"/>
-      <c r="C227" s="33" t="s">
+      <c r="C227" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D227" s="51"/>
@@ -3727,7 +3733,7 @@
         <v>19</v>
       </c>
       <c r="B228" s="51"/>
-      <c r="C228" s="31" t="s">
+      <c r="C228" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D228" s="51"/>
@@ -3740,7 +3746,7 @@
         <v>19</v>
       </c>
       <c r="B229" s="51"/>
-      <c r="C229" s="31" t="s">
+      <c r="C229" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D229" s="51"/>
@@ -3753,7 +3759,7 @@
         <v>19</v>
       </c>
       <c r="B230" s="51"/>
-      <c r="C230" s="31" t="s">
+      <c r="C230" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D230" s="51"/>
@@ -3764,7 +3770,7 @@
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="34"/>
       <c r="B231" s="51"/>
-      <c r="C231" s="31" t="s">
+      <c r="C231" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D231" s="51"/>
@@ -3777,7 +3783,7 @@
         <v>19</v>
       </c>
       <c r="B232" s="51"/>
-      <c r="C232" s="31" t="s">
+      <c r="C232" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D232" s="51"/>
@@ -3790,7 +3796,7 @@
         <v>19</v>
       </c>
       <c r="B233" s="51"/>
-      <c r="C233" s="31" t="s">
+      <c r="C233" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D233" s="51"/>
@@ -3803,7 +3809,7 @@
         <v>19</v>
       </c>
       <c r="B234" s="51"/>
-      <c r="C234" s="31" t="s">
+      <c r="C234" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D234" s="51"/>
@@ -3816,7 +3822,7 @@
         <v>19</v>
       </c>
       <c r="B235" s="51"/>
-      <c r="C235" s="31" t="s">
+      <c r="C235" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D235" s="51"/>
@@ -3829,7 +3835,7 @@
         <v>19</v>
       </c>
       <c r="B236" s="51"/>
-      <c r="C236" s="31" t="s">
+      <c r="C236" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D236" s="51"/>
@@ -3842,7 +3848,7 @@
         <v>19</v>
       </c>
       <c r="B237" s="51"/>
-      <c r="C237" s="33" t="s">
+      <c r="C237" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D237" s="51"/>
@@ -3855,7 +3861,7 @@
         <v>19</v>
       </c>
       <c r="B238" s="51"/>
-      <c r="C238" s="33" t="s">
+      <c r="C238" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D238" s="51"/>
@@ -3868,7 +3874,7 @@
         <v>19</v>
       </c>
       <c r="B239" s="51"/>
-      <c r="C239" s="31" t="s">
+      <c r="C239" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D239" s="51"/>
@@ -3881,7 +3887,7 @@
         <v>19</v>
       </c>
       <c r="B240" s="51"/>
-      <c r="C240" s="31" t="s">
+      <c r="C240" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D240" s="51"/>
@@ -3894,7 +3900,7 @@
         <v>19</v>
       </c>
       <c r="B241" s="51"/>
-      <c r="C241" s="31" t="s">
+      <c r="C241" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D241" s="51"/>
@@ -3907,7 +3913,7 @@
         <v>19</v>
       </c>
       <c r="B242" s="51"/>
-      <c r="C242" s="31" t="s">
+      <c r="C242" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D242" s="51"/>
@@ -3920,7 +3926,7 @@
         <v>19</v>
       </c>
       <c r="B243" s="51"/>
-      <c r="C243" s="31" t="s">
+      <c r="C243" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D243" s="51"/>
@@ -3933,7 +3939,7 @@
         <v>19</v>
       </c>
       <c r="B244" s="51"/>
-      <c r="C244" s="31" t="s">
+      <c r="C244" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D244" s="51"/>
@@ -3946,7 +3952,7 @@
         <v>19</v>
       </c>
       <c r="B245" s="51"/>
-      <c r="C245" s="31" t="s">
+      <c r="C245" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D245" s="51"/>
@@ -3959,7 +3965,7 @@
         <v>19</v>
       </c>
       <c r="B246" s="51"/>
-      <c r="C246" s="31" t="s">
+      <c r="C246" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D246" s="51"/>
@@ -3972,7 +3978,7 @@
         <v>19</v>
       </c>
       <c r="B247" s="51"/>
-      <c r="C247" s="31" t="s">
+      <c r="C247" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D247" s="51"/>
@@ -3985,7 +3991,7 @@
         <v>19</v>
       </c>
       <c r="B248" s="51"/>
-      <c r="C248" s="33" t="s">
+      <c r="C248" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D248" s="51"/>
@@ -3998,7 +4004,7 @@
         <v>19</v>
       </c>
       <c r="B249" s="51"/>
-      <c r="C249" s="33" t="s">
+      <c r="C249" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D249" s="51"/>
@@ -4011,7 +4017,7 @@
         <v>19</v>
       </c>
       <c r="B250" s="51"/>
-      <c r="C250" s="31" t="s">
+      <c r="C250" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D250" s="51"/>
@@ -4024,7 +4030,7 @@
         <v>19</v>
       </c>
       <c r="B251" s="51"/>
-      <c r="C251" s="31" t="s">
+      <c r="C251" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D251" s="51"/>
@@ -4037,7 +4043,7 @@
         <v>19</v>
       </c>
       <c r="B252" s="51"/>
-      <c r="C252" s="31" t="s">
+      <c r="C252" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D252" s="51"/>
@@ -4050,7 +4056,7 @@
         <v>19</v>
       </c>
       <c r="B253" s="51"/>
-      <c r="C253" s="31" t="s">
+      <c r="C253" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D253" s="51"/>
@@ -4063,7 +4069,7 @@
         <v>19</v>
       </c>
       <c r="B254" s="51"/>
-      <c r="C254" s="31" t="s">
+      <c r="C254" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D254" s="51"/>
@@ -4076,7 +4082,7 @@
         <v>19</v>
       </c>
       <c r="B255" s="51"/>
-      <c r="C255" s="31" t="s">
+      <c r="C255" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D255" s="51"/>
@@ -4089,7 +4095,7 @@
         <v>19</v>
       </c>
       <c r="B256" s="51"/>
-      <c r="C256" s="31" t="s">
+      <c r="C256" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D256" s="51"/>
@@ -4102,7 +4108,7 @@
         <v>19</v>
       </c>
       <c r="B257" s="51"/>
-      <c r="C257" s="31" t="s">
+      <c r="C257" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D257" s="51"/>
@@ -4115,7 +4121,7 @@
         <v>19</v>
       </c>
       <c r="B258" s="51"/>
-      <c r="C258" s="31" t="s">
+      <c r="C258" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D258" s="51"/>
@@ -4128,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B259" s="51"/>
-      <c r="C259" s="33" t="s">
+      <c r="C259" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D259" s="51"/>
@@ -4141,7 +4147,7 @@
         <v>19</v>
       </c>
       <c r="B260" s="51"/>
-      <c r="C260" s="33" t="s">
+      <c r="C260" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D260" s="51"/>
@@ -4154,7 +4160,7 @@
         <v>19</v>
       </c>
       <c r="B261" s="51"/>
-      <c r="C261" s="31" t="s">
+      <c r="C261" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D261" s="51"/>
@@ -4165,7 +4171,7 @@
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="34"/>
       <c r="B262" s="51"/>
-      <c r="C262" s="31" t="s">
+      <c r="C262" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D262" s="51"/>
@@ -4178,7 +4184,7 @@
         <v>19</v>
       </c>
       <c r="B263" s="51"/>
-      <c r="C263" s="31" t="s">
+      <c r="C263" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D263" s="51"/>
@@ -4191,7 +4197,7 @@
         <v>19</v>
       </c>
       <c r="B264" s="51"/>
-      <c r="C264" s="31" t="s">
+      <c r="C264" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D264" s="51"/>
@@ -4204,7 +4210,7 @@
         <v>19</v>
       </c>
       <c r="B265" s="51"/>
-      <c r="C265" s="31" t="s">
+      <c r="C265" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D265" s="51"/>
@@ -4217,7 +4223,7 @@
         <v>19</v>
       </c>
       <c r="B266" s="51"/>
-      <c r="C266" s="31" t="s">
+      <c r="C266" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D266" s="51"/>
@@ -4230,7 +4236,7 @@
         <v>19</v>
       </c>
       <c r="B267" s="51"/>
-      <c r="C267" s="31" t="s">
+      <c r="C267" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D267" s="51"/>
@@ -4243,7 +4249,7 @@
         <v>19</v>
       </c>
       <c r="B268" s="51"/>
-      <c r="C268" s="31" t="s">
+      <c r="C268" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D268" s="51"/>
@@ -4256,7 +4262,7 @@
         <v>19</v>
       </c>
       <c r="B269" s="51"/>
-      <c r="C269" s="31" t="s">
+      <c r="C269" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D269" s="51"/>
@@ -4269,7 +4275,7 @@
         <v>19</v>
       </c>
       <c r="B270" s="51"/>
-      <c r="C270" s="33" t="s">
+      <c r="C270" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D270" s="51"/>
@@ -4282,7 +4288,7 @@
         <v>19</v>
       </c>
       <c r="B271" s="51"/>
-      <c r="C271" s="33" t="s">
+      <c r="C271" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D271" s="51"/>
@@ -4295,7 +4301,7 @@
         <v>19</v>
       </c>
       <c r="B272" s="51"/>
-      <c r="C272" s="31" t="s">
+      <c r="C272" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D272" s="51"/>
@@ -4308,7 +4314,7 @@
         <v>19</v>
       </c>
       <c r="B273" s="51"/>
-      <c r="C273" s="31" t="s">
+      <c r="C273" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D273" s="51"/>
@@ -4321,7 +4327,7 @@
         <v>19</v>
       </c>
       <c r="B274" s="51"/>
-      <c r="C274" s="31" t="s">
+      <c r="C274" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D274" s="51"/>
@@ -4334,7 +4340,7 @@
         <v>19</v>
       </c>
       <c r="B275" s="51"/>
-      <c r="C275" s="31" t="s">
+      <c r="C275" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D275" s="51"/>
@@ -4347,7 +4353,7 @@
         <v>19</v>
       </c>
       <c r="B276" s="51"/>
-      <c r="C276" s="31" t="s">
+      <c r="C276" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D276" s="51"/>
@@ -4360,7 +4366,7 @@
         <v>19</v>
       </c>
       <c r="B277" s="51"/>
-      <c r="C277" s="31" t="s">
+      <c r="C277" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D277" s="51"/>
@@ -4373,7 +4379,7 @@
         <v>19</v>
       </c>
       <c r="B278" s="51"/>
-      <c r="C278" s="31" t="s">
+      <c r="C278" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D278" s="51"/>
@@ -4386,7 +4392,7 @@
         <v>19</v>
       </c>
       <c r="B279" s="51"/>
-      <c r="C279" s="31" t="s">
+      <c r="C279" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D279" s="51"/>
@@ -4399,7 +4405,7 @@
         <v>19</v>
       </c>
       <c r="B280" s="51"/>
-      <c r="C280" s="31" t="s">
+      <c r="C280" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D280" s="51"/>
@@ -4412,7 +4418,7 @@
         <v>19</v>
       </c>
       <c r="B281" s="51"/>
-      <c r="C281" s="33" t="s">
+      <c r="C281" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D281" s="51"/>
@@ -4425,7 +4431,7 @@
         <v>19</v>
       </c>
       <c r="B282" s="51"/>
-      <c r="C282" s="33" t="s">
+      <c r="C282" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D282" s="51"/>
@@ -4438,7 +4444,7 @@
         <v>19</v>
       </c>
       <c r="B283" s="51"/>
-      <c r="C283" s="31" t="s">
+      <c r="C283" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D283" s="51"/>
@@ -4451,7 +4457,7 @@
         <v>19</v>
       </c>
       <c r="B284" s="51"/>
-      <c r="C284" s="31" t="s">
+      <c r="C284" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D284" s="51"/>
@@ -4464,7 +4470,7 @@
         <v>19</v>
       </c>
       <c r="B285" s="51"/>
-      <c r="C285" s="31" t="s">
+      <c r="C285" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D285" s="51"/>
@@ -4477,7 +4483,7 @@
         <v>19</v>
       </c>
       <c r="B286" s="51"/>
-      <c r="C286" s="31" t="s">
+      <c r="C286" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D286" s="51"/>
@@ -4490,7 +4496,7 @@
         <v>19</v>
       </c>
       <c r="B287" s="51"/>
-      <c r="C287" s="31" t="s">
+      <c r="C287" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D287" s="51"/>
@@ -4503,7 +4509,7 @@
         <v>19</v>
       </c>
       <c r="B288" s="51"/>
-      <c r="C288" s="31" t="s">
+      <c r="C288" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D288" s="51"/>
@@ -4516,7 +4522,7 @@
         <v>19</v>
       </c>
       <c r="B289" s="51"/>
-      <c r="C289" s="31" t="s">
+      <c r="C289" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D289" s="51"/>
@@ -4529,7 +4535,7 @@
         <v>19</v>
       </c>
       <c r="B290" s="51"/>
-      <c r="C290" s="31" t="s">
+      <c r="C290" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D290" s="51"/>
@@ -4542,7 +4548,7 @@
         <v>19</v>
       </c>
       <c r="B291" s="51"/>
-      <c r="C291" s="31" t="s">
+      <c r="C291" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D291" s="51"/>
@@ -4555,7 +4561,7 @@
         <v>19</v>
       </c>
       <c r="B292" s="51"/>
-      <c r="C292" s="33" t="s">
+      <c r="C292" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D292" s="51"/>
@@ -4566,7 +4572,7 @@
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="34"/>
       <c r="B293" s="51"/>
-      <c r="C293" s="33" t="s">
+      <c r="C293" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D293" s="51"/>
@@ -4579,7 +4585,7 @@
         <v>19</v>
       </c>
       <c r="B294" s="51"/>
-      <c r="C294" s="31" t="s">
+      <c r="C294" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D294" s="51"/>
@@ -4592,7 +4598,7 @@
         <v>19</v>
       </c>
       <c r="B295" s="51"/>
-      <c r="C295" s="31" t="s">
+      <c r="C295" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D295" s="51"/>
@@ -4605,7 +4611,7 @@
         <v>19</v>
       </c>
       <c r="B296" s="51"/>
-      <c r="C296" s="31" t="s">
+      <c r="C296" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D296" s="51"/>
@@ -4618,7 +4624,7 @@
         <v>19</v>
       </c>
       <c r="B297" s="51"/>
-      <c r="C297" s="31" t="s">
+      <c r="C297" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D297" s="51"/>
@@ -4631,7 +4637,7 @@
         <v>19</v>
       </c>
       <c r="B298" s="51"/>
-      <c r="C298" s="31" t="s">
+      <c r="C298" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D298" s="51"/>
@@ -4644,7 +4650,7 @@
         <v>19</v>
       </c>
       <c r="B299" s="51"/>
-      <c r="C299" s="31" t="s">
+      <c r="C299" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D299" s="51"/>
@@ -4657,7 +4663,7 @@
         <v>19</v>
       </c>
       <c r="B300" s="51"/>
-      <c r="C300" s="31" t="s">
+      <c r="C300" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D300" s="51"/>
@@ -4670,7 +4676,7 @@
         <v>19</v>
       </c>
       <c r="B301" s="51"/>
-      <c r="C301" s="31" t="s">
+      <c r="C301" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D301" s="51"/>
@@ -4683,7 +4689,7 @@
         <v>19</v>
       </c>
       <c r="B302" s="51"/>
-      <c r="C302" s="31" t="s">
+      <c r="C302" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D302" s="51"/>
@@ -4696,7 +4702,7 @@
         <v>19</v>
       </c>
       <c r="B303" s="51"/>
-      <c r="C303" s="33" t="s">
+      <c r="C303" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D303" s="51"/>
@@ -4709,7 +4715,7 @@
         <v>19</v>
       </c>
       <c r="B304" s="51"/>
-      <c r="C304" s="33" t="s">
+      <c r="C304" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D304" s="51"/>
@@ -4722,7 +4728,7 @@
         <v>19</v>
       </c>
       <c r="B305" s="51"/>
-      <c r="C305" s="31" t="s">
+      <c r="C305" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D305" s="51"/>
@@ -4735,7 +4741,7 @@
         <v>19</v>
       </c>
       <c r="B306" s="51"/>
-      <c r="C306" s="31" t="s">
+      <c r="C306" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D306" s="51"/>
@@ -4748,7 +4754,7 @@
         <v>19</v>
       </c>
       <c r="B307" s="51"/>
-      <c r="C307" s="31" t="s">
+      <c r="C307" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D307" s="51"/>
@@ -4761,7 +4767,7 @@
         <v>19</v>
       </c>
       <c r="B308" s="51"/>
-      <c r="C308" s="31" t="s">
+      <c r="C308" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D308" s="51"/>
@@ -4774,7 +4780,7 @@
         <v>19</v>
       </c>
       <c r="B309" s="51"/>
-      <c r="C309" s="31" t="s">
+      <c r="C309" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D309" s="51"/>
@@ -4787,7 +4793,7 @@
         <v>19</v>
       </c>
       <c r="B310" s="51"/>
-      <c r="C310" s="31" t="s">
+      <c r="C310" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D310" s="51"/>
@@ -4800,7 +4806,7 @@
         <v>19</v>
       </c>
       <c r="B311" s="51"/>
-      <c r="C311" s="31" t="s">
+      <c r="C311" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D311" s="51"/>
@@ -4813,7 +4819,7 @@
         <v>19</v>
       </c>
       <c r="B312" s="51"/>
-      <c r="C312" s="31" t="s">
+      <c r="C312" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D312" s="51"/>
@@ -4826,7 +4832,7 @@
         <v>19</v>
       </c>
       <c r="B313" s="51"/>
-      <c r="C313" s="31" t="s">
+      <c r="C313" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D313" s="51"/>
@@ -4839,7 +4845,7 @@
         <v>19</v>
       </c>
       <c r="B314" s="51"/>
-      <c r="C314" s="33" t="s">
+      <c r="C314" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D314" s="51"/>
@@ -4852,7 +4858,7 @@
         <v>19</v>
       </c>
       <c r="B315" s="51"/>
-      <c r="C315" s="33" t="s">
+      <c r="C315" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D315" s="51"/>
@@ -4865,7 +4871,7 @@
         <v>19</v>
       </c>
       <c r="B316" s="51"/>
-      <c r="C316" s="31" t="s">
+      <c r="C316" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D316" s="51"/>
@@ -4878,7 +4884,7 @@
         <v>19</v>
       </c>
       <c r="B317" s="51"/>
-      <c r="C317" s="31" t="s">
+      <c r="C317" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D317" s="51"/>
@@ -4891,7 +4897,7 @@
         <v>19</v>
       </c>
       <c r="B318" s="51"/>
-      <c r="C318" s="31" t="s">
+      <c r="C318" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D318" s="51"/>
@@ -4904,7 +4910,7 @@
         <v>19</v>
       </c>
       <c r="B319" s="51"/>
-      <c r="C319" s="31" t="s">
+      <c r="C319" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D319" s="51"/>
@@ -4917,7 +4923,7 @@
         <v>19</v>
       </c>
       <c r="B320" s="51"/>
-      <c r="C320" s="31" t="s">
+      <c r="C320" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D320" s="51"/>
@@ -4930,7 +4936,7 @@
         <v>19</v>
       </c>
       <c r="B321" s="51"/>
-      <c r="C321" s="31" t="s">
+      <c r="C321" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D321" s="51"/>
@@ -4943,7 +4949,7 @@
         <v>19</v>
       </c>
       <c r="B322" s="51"/>
-      <c r="C322" s="31" t="s">
+      <c r="C322" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D322" s="51"/>
@@ -4956,7 +4962,7 @@
         <v>19</v>
       </c>
       <c r="B323" s="51"/>
-      <c r="C323" s="31" t="s">
+      <c r="C323" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D323" s="51"/>
@@ -4967,7 +4973,7 @@
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="34"/>
       <c r="B324" s="51"/>
-      <c r="C324" s="31" t="s">
+      <c r="C324" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D324" s="51"/>
@@ -4980,7 +4986,7 @@
         <v>19</v>
       </c>
       <c r="B325" s="51"/>
-      <c r="C325" s="33" t="s">
+      <c r="C325" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D325" s="51"/>
@@ -4993,7 +4999,7 @@
         <v>19</v>
       </c>
       <c r="B326" s="51"/>
-      <c r="C326" s="33" t="s">
+      <c r="C326" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D326" s="51"/>
@@ -5006,7 +5012,7 @@
         <v>19</v>
       </c>
       <c r="B327" s="51"/>
-      <c r="C327" s="31" t="s">
+      <c r="C327" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D327" s="51"/>
@@ -5019,7 +5025,7 @@
         <v>19</v>
       </c>
       <c r="B328" s="51"/>
-      <c r="C328" s="31" t="s">
+      <c r="C328" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D328" s="51"/>
@@ -5032,7 +5038,7 @@
         <v>19</v>
       </c>
       <c r="B329" s="51"/>
-      <c r="C329" s="31" t="s">
+      <c r="C329" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D329" s="51"/>
@@ -5045,7 +5051,7 @@
         <v>19</v>
       </c>
       <c r="B330" s="51"/>
-      <c r="C330" s="31" t="s">
+      <c r="C330" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D330" s="51"/>
@@ -5058,7 +5064,7 @@
         <v>19</v>
       </c>
       <c r="B331" s="51"/>
-      <c r="C331" s="31" t="s">
+      <c r="C331" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D331" s="51"/>
@@ -5071,7 +5077,7 @@
         <v>19</v>
       </c>
       <c r="B332" s="51"/>
-      <c r="C332" s="31" t="s">
+      <c r="C332" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D332" s="51"/>
@@ -5084,7 +5090,7 @@
         <v>19</v>
       </c>
       <c r="B333" s="51"/>
-      <c r="C333" s="31" t="s">
+      <c r="C333" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D333" s="51"/>
@@ -5097,7 +5103,7 @@
         <v>19</v>
       </c>
       <c r="B334" s="51"/>
-      <c r="C334" s="31" t="s">
+      <c r="C334" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D334" s="51"/>
@@ -5110,7 +5116,7 @@
         <v>19</v>
       </c>
       <c r="B335" s="51"/>
-      <c r="C335" s="31" t="s">
+      <c r="C335" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D335" s="51"/>
@@ -5123,7 +5129,7 @@
         <v>19</v>
       </c>
       <c r="B336" s="51"/>
-      <c r="C336" s="33" t="s">
+      <c r="C336" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D336" s="51"/>
@@ -5136,7 +5142,7 @@
         <v>19</v>
       </c>
       <c r="B337" s="51"/>
-      <c r="C337" s="33" t="s">
+      <c r="C337" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D337" s="51"/>
@@ -5149,7 +5155,7 @@
         <v>19</v>
       </c>
       <c r="B338" s="51"/>
-      <c r="C338" s="31" t="s">
+      <c r="C338" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D338" s="51"/>
@@ -5162,7 +5168,7 @@
         <v>19</v>
       </c>
       <c r="B339" s="51"/>
-      <c r="C339" s="31" t="s">
+      <c r="C339" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D339" s="51"/>
@@ -5175,7 +5181,7 @@
         <v>19</v>
       </c>
       <c r="B340" s="51"/>
-      <c r="C340" s="31" t="s">
+      <c r="C340" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D340" s="51"/>
@@ -5188,7 +5194,7 @@
         <v>19</v>
       </c>
       <c r="B341" s="51"/>
-      <c r="C341" s="31" t="s">
+      <c r="C341" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D341" s="51"/>
@@ -5201,7 +5207,7 @@
         <v>19</v>
       </c>
       <c r="B342" s="51"/>
-      <c r="C342" s="31" t="s">
+      <c r="C342" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D342" s="51"/>
@@ -5214,7 +5220,7 @@
         <v>19</v>
       </c>
       <c r="B343" s="51"/>
-      <c r="C343" s="31" t="s">
+      <c r="C343" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D343" s="51"/>
@@ -5227,7 +5233,7 @@
         <v>19</v>
       </c>
       <c r="B344" s="51"/>
-      <c r="C344" s="31" t="s">
+      <c r="C344" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D344" s="51"/>
@@ -5240,7 +5246,7 @@
         <v>19</v>
       </c>
       <c r="B345" s="51"/>
-      <c r="C345" s="31" t="s">
+      <c r="C345" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D345" s="51"/>
@@ -5253,7 +5259,7 @@
         <v>19</v>
       </c>
       <c r="B346" s="51"/>
-      <c r="C346" s="31" t="s">
+      <c r="C346" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D346" s="51"/>
@@ -5266,7 +5272,7 @@
         <v>19</v>
       </c>
       <c r="B347" s="51"/>
-      <c r="C347" s="33" t="s">
+      <c r="C347" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D347" s="51"/>
@@ -5279,7 +5285,7 @@
         <v>19</v>
       </c>
       <c r="B348" s="51"/>
-      <c r="C348" s="33" t="s">
+      <c r="C348" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D348" s="51"/>
@@ -5292,7 +5298,7 @@
         <v>19</v>
       </c>
       <c r="B349" s="51"/>
-      <c r="C349" s="31" t="s">
+      <c r="C349" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D349" s="51"/>
@@ -5305,7 +5311,7 @@
         <v>19</v>
       </c>
       <c r="B350" s="51"/>
-      <c r="C350" s="31" t="s">
+      <c r="C350" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D350" s="51"/>
@@ -5318,7 +5324,7 @@
         <v>19</v>
       </c>
       <c r="B351" s="51"/>
-      <c r="C351" s="31" t="s">
+      <c r="C351" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D351" s="51"/>
@@ -5331,7 +5337,7 @@
         <v>19</v>
       </c>
       <c r="B352" s="51"/>
-      <c r="C352" s="31" t="s">
+      <c r="C352" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D352" s="51"/>
@@ -5344,7 +5350,7 @@
         <v>19</v>
       </c>
       <c r="B353" s="51"/>
-      <c r="C353" s="31" t="s">
+      <c r="C353" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D353" s="51"/>
@@ -5357,7 +5363,7 @@
         <v>19</v>
       </c>
       <c r="B354" s="51"/>
-      <c r="C354" s="31" t="s">
+      <c r="C354" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D354" s="51"/>
@@ -5368,7 +5374,7 @@
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="34"/>
       <c r="B355" s="51"/>
-      <c r="C355" s="31" t="s">
+      <c r="C355" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D355" s="51"/>
@@ -5381,7 +5387,7 @@
         <v>19</v>
       </c>
       <c r="B356" s="51"/>
-      <c r="C356" s="31" t="s">
+      <c r="C356" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D356" s="51"/>
@@ -5394,7 +5400,7 @@
         <v>19</v>
       </c>
       <c r="B357" s="51"/>
-      <c r="C357" s="31" t="s">
+      <c r="C357" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D357" s="51"/>
@@ -5407,7 +5413,7 @@
         <v>19</v>
       </c>
       <c r="B358" s="51"/>
-      <c r="C358" s="33" t="s">
+      <c r="C358" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D358" s="51"/>
@@ -5420,7 +5426,7 @@
         <v>19</v>
       </c>
       <c r="B359" s="51"/>
-      <c r="C359" s="33" t="s">
+      <c r="C359" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D359" s="51"/>
@@ -5433,7 +5439,7 @@
         <v>19</v>
       </c>
       <c r="B360" s="51"/>
-      <c r="C360" s="31" t="s">
+      <c r="C360" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D360" s="51"/>
@@ -5446,7 +5452,7 @@
         <v>19</v>
       </c>
       <c r="B361" s="51"/>
-      <c r="C361" s="33"/>
+      <c r="C361" s="51"/>
       <c r="D361" s="51"/>
       <c r="E361" s="34"/>
       <c r="F361" s="34"/>
@@ -5457,7 +5463,7 @@
         <v>19</v>
       </c>
       <c r="B362" s="51"/>
-      <c r="C362" s="33" t="s">
+      <c r="C362" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D362" s="51"/>
@@ -5470,7 +5476,7 @@
         <v>19</v>
       </c>
       <c r="B363" s="51"/>
-      <c r="C363" s="31" t="s">
+      <c r="C363" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D363" s="51"/>
@@ -5483,7 +5489,7 @@
         <v>19</v>
       </c>
       <c r="B364" s="51"/>
-      <c r="C364" s="31" t="s">
+      <c r="C364" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D364" s="51"/>
@@ -5496,7 +5502,7 @@
         <v>19</v>
       </c>
       <c r="B365" s="51"/>
-      <c r="C365" s="31" t="s">
+      <c r="C365" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D365" s="51"/>
@@ -5509,7 +5515,7 @@
         <v>19</v>
       </c>
       <c r="B366" s="51"/>
-      <c r="C366" s="31" t="s">
+      <c r="C366" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D366" s="51"/>
@@ -5522,7 +5528,7 @@
         <v>19</v>
       </c>
       <c r="B367" s="51"/>
-      <c r="C367" s="31" t="s">
+      <c r="C367" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D367" s="51"/>
@@ -5535,7 +5541,7 @@
         <v>19</v>
       </c>
       <c r="B368" s="51"/>
-      <c r="C368" s="31" t="s">
+      <c r="C368" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D368" s="51"/>
@@ -5548,7 +5554,7 @@
         <v>19</v>
       </c>
       <c r="B369" s="51"/>
-      <c r="C369" s="31" t="s">
+      <c r="C369" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D369" s="51"/>
@@ -5561,7 +5567,7 @@
         <v>19</v>
       </c>
       <c r="B370" s="51"/>
-      <c r="C370" s="31" t="s">
+      <c r="C370" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D370" s="51"/>
@@ -5574,7 +5580,7 @@
         <v>19</v>
       </c>
       <c r="B371" s="51"/>
-      <c r="C371" s="31" t="s">
+      <c r="C371" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D371" s="51"/>
@@ -5587,7 +5593,7 @@
         <v>19</v>
       </c>
       <c r="B372" s="51"/>
-      <c r="C372" s="33" t="s">
+      <c r="C372" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D372" s="51"/>
@@ -5600,7 +5606,7 @@
         <v>19</v>
       </c>
       <c r="B373" s="51"/>
-      <c r="C373" s="33" t="s">
+      <c r="C373" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D373" s="51"/>
@@ -5613,7 +5619,7 @@
         <v>19</v>
       </c>
       <c r="B374" s="51"/>
-      <c r="C374" s="31" t="s">
+      <c r="C374" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D374" s="51"/>
@@ -5626,7 +5632,7 @@
         <v>19</v>
       </c>
       <c r="B375" s="51"/>
-      <c r="C375" s="31" t="s">
+      <c r="C375" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D375" s="51"/>
@@ -5639,7 +5645,7 @@
         <v>19</v>
       </c>
       <c r="B376" s="51"/>
-      <c r="C376" s="31" t="s">
+      <c r="C376" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D376" s="51"/>
@@ -5652,7 +5658,7 @@
         <v>19</v>
       </c>
       <c r="B377" s="51"/>
-      <c r="C377" s="31" t="s">
+      <c r="C377" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D377" s="51"/>
@@ -5665,7 +5671,7 @@
         <v>19</v>
       </c>
       <c r="B378" s="51"/>
-      <c r="C378" s="31" t="s">
+      <c r="C378" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D378" s="51"/>
@@ -5678,7 +5684,7 @@
         <v>19</v>
       </c>
       <c r="B379" s="51"/>
-      <c r="C379" s="31" t="s">
+      <c r="C379" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D379" s="51"/>
@@ -5691,7 +5697,7 @@
         <v>19</v>
       </c>
       <c r="B380" s="51"/>
-      <c r="C380" s="31" t="s">
+      <c r="C380" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D380" s="51"/>
@@ -5704,7 +5710,7 @@
         <v>19</v>
       </c>
       <c r="B381" s="51"/>
-      <c r="C381" s="31" t="s">
+      <c r="C381" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D381" s="51"/>
@@ -5717,7 +5723,7 @@
         <v>19</v>
       </c>
       <c r="B382" s="51"/>
-      <c r="C382" s="31" t="s">
+      <c r="C382" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D382" s="51"/>
@@ -5730,7 +5736,7 @@
         <v>19</v>
       </c>
       <c r="B383" s="51"/>
-      <c r="C383" s="33" t="s">
+      <c r="C383" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D383" s="51"/>
@@ -5743,7 +5749,7 @@
         <v>19</v>
       </c>
       <c r="B384" s="51"/>
-      <c r="C384" s="33" t="s">
+      <c r="C384" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D384" s="51"/>
@@ -5756,7 +5762,7 @@
         <v>19</v>
       </c>
       <c r="B385" s="51"/>
-      <c r="C385" s="31" t="s">
+      <c r="C385" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D385" s="51"/>
@@ -5769,7 +5775,7 @@
         <v>19</v>
       </c>
       <c r="B386" s="51"/>
-      <c r="C386" s="31" t="s">
+      <c r="C386" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D386" s="51"/>
@@ -5782,7 +5788,7 @@
         <v>19</v>
       </c>
       <c r="B387" s="51"/>
-      <c r="C387" s="31" t="s">
+      <c r="C387" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D387" s="51"/>
@@ -5795,7 +5801,7 @@
         <v>19</v>
       </c>
       <c r="B388" s="51"/>
-      <c r="C388" s="31" t="s">
+      <c r="C388" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D388" s="51"/>
@@ -5808,7 +5814,7 @@
         <v>19</v>
       </c>
       <c r="B389" s="51"/>
-      <c r="C389" s="31" t="s">
+      <c r="C389" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D389" s="51"/>
@@ -5821,7 +5827,7 @@
         <v>19</v>
       </c>
       <c r="B390" s="51"/>
-      <c r="C390" s="31" t="s">
+      <c r="C390" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D390" s="51"/>
@@ -5834,7 +5840,7 @@
         <v>19</v>
       </c>
       <c r="B391" s="51"/>
-      <c r="C391" s="31" t="s">
+      <c r="C391" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D391" s="51"/>
@@ -5847,7 +5853,7 @@
         <v>19</v>
       </c>
       <c r="B392" s="51"/>
-      <c r="C392" s="31" t="s">
+      <c r="C392" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D392" s="51"/>
@@ -5860,7 +5866,7 @@
         <v>19</v>
       </c>
       <c r="B393" s="51"/>
-      <c r="C393" s="31" t="s">
+      <c r="C393" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D393" s="51"/>
@@ -5873,7 +5879,7 @@
         <v>19</v>
       </c>
       <c r="B394" s="51"/>
-      <c r="C394" s="33" t="s">
+      <c r="C394" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D394" s="51"/>
@@ -5886,7 +5892,7 @@
         <v>19</v>
       </c>
       <c r="B395" s="51"/>
-      <c r="C395" s="33" t="s">
+      <c r="C395" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D395" s="51"/>
@@ -5899,7 +5905,7 @@
         <v>19</v>
       </c>
       <c r="B396" s="51"/>
-      <c r="C396" s="31" t="s">
+      <c r="C396" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D396" s="51"/>
@@ -5912,7 +5918,7 @@
         <v>19</v>
       </c>
       <c r="B397" s="51"/>
-      <c r="C397" s="31" t="s">
+      <c r="C397" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D397" s="51"/>
@@ -5925,7 +5931,7 @@
         <v>19</v>
       </c>
       <c r="B398" s="51"/>
-      <c r="C398" s="31" t="s">
+      <c r="C398" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D398" s="51"/>
@@ -5938,7 +5944,7 @@
         <v>19</v>
       </c>
       <c r="B399" s="51"/>
-      <c r="C399" s="31" t="s">
+      <c r="C399" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D399" s="51"/>
@@ -5951,7 +5957,7 @@
         <v>19</v>
       </c>
       <c r="B400" s="51"/>
-      <c r="C400" s="31" t="s">
+      <c r="C400" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D400" s="51"/>
@@ -5964,7 +5970,7 @@
         <v>19</v>
       </c>
       <c r="B401" s="51"/>
-      <c r="C401" s="31" t="s">
+      <c r="C401" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D401" s="51"/>
@@ -5977,7 +5983,7 @@
         <v>19</v>
       </c>
       <c r="B402" s="51"/>
-      <c r="C402" s="31" t="s">
+      <c r="C402" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D402" s="51"/>
@@ -5990,7 +5996,7 @@
         <v>19</v>
       </c>
       <c r="B403" s="51"/>
-      <c r="C403" s="31" t="s">
+      <c r="C403" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D403" s="51"/>
@@ -6003,7 +6009,7 @@
         <v>19</v>
       </c>
       <c r="B404" s="51"/>
-      <c r="C404" s="31" t="s">
+      <c r="C404" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D404" s="51"/>
@@ -6016,7 +6022,7 @@
         <v>19</v>
       </c>
       <c r="B405" s="51"/>
-      <c r="C405" s="33" t="s">
+      <c r="C405" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D405" s="51"/>
@@ -6029,7 +6035,7 @@
         <v>19</v>
       </c>
       <c r="B406" s="51"/>
-      <c r="C406" s="33" t="s">
+      <c r="C406" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D406" s="51"/>
@@ -6042,7 +6048,7 @@
         <v>19</v>
       </c>
       <c r="B407" s="51"/>
-      <c r="C407" s="31" t="s">
+      <c r="C407" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D407" s="51"/>
@@ -6055,7 +6061,7 @@
         <v>19</v>
       </c>
       <c r="B408" s="51"/>
-      <c r="C408" s="31" t="s">
+      <c r="C408" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D408" s="51"/>
@@ -6068,7 +6074,7 @@
         <v>19</v>
       </c>
       <c r="B409" s="51"/>
-      <c r="C409" s="31" t="s">
+      <c r="C409" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D409" s="51"/>
@@ -6081,7 +6087,7 @@
         <v>19</v>
       </c>
       <c r="B410" s="51"/>
-      <c r="C410" s="31" t="s">
+      <c r="C410" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D410" s="51"/>
@@ -6094,7 +6100,7 @@
         <v>19</v>
       </c>
       <c r="B411" s="51"/>
-      <c r="C411" s="31" t="s">
+      <c r="C411" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D411" s="51"/>
@@ -6107,7 +6113,7 @@
         <v>19</v>
       </c>
       <c r="B412" s="51"/>
-      <c r="C412" s="31" t="s">
+      <c r="C412" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D412" s="51"/>
@@ -6120,7 +6126,7 @@
         <v>19</v>
       </c>
       <c r="B413" s="51"/>
-      <c r="C413" s="31" t="s">
+      <c r="C413" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D413" s="51"/>
@@ -6133,7 +6139,7 @@
         <v>19</v>
       </c>
       <c r="B414" s="51"/>
-      <c r="C414" s="31" t="s">
+      <c r="C414" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D414" s="51"/>
@@ -6144,7 +6150,7 @@
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" s="34"/>
       <c r="B415" s="51"/>
-      <c r="C415" s="31" t="s">
+      <c r="C415" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D415" s="51"/>
@@ -6157,7 +6163,7 @@
         <v>19</v>
       </c>
       <c r="B416" s="51"/>
-      <c r="C416" s="33" t="s">
+      <c r="C416" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D416" s="51"/>
@@ -6170,7 +6176,7 @@
         <v>19</v>
       </c>
       <c r="B417" s="51"/>
-      <c r="C417" s="33" t="s">
+      <c r="C417" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D417" s="51"/>
@@ -6183,7 +6189,7 @@
         <v>19</v>
       </c>
       <c r="B418" s="51"/>
-      <c r="C418" s="31" t="s">
+      <c r="C418" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D418" s="51"/>
@@ -6196,7 +6202,7 @@
         <v>19</v>
       </c>
       <c r="B419" s="51"/>
-      <c r="C419" s="31" t="s">
+      <c r="C419" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D419" s="51"/>
@@ -6209,7 +6215,7 @@
         <v>19</v>
       </c>
       <c r="B420" s="51"/>
-      <c r="C420" s="31" t="s">
+      <c r="C420" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D420" s="51"/>
@@ -6222,7 +6228,7 @@
         <v>19</v>
       </c>
       <c r="B421" s="51"/>
-      <c r="C421" s="31" t="s">
+      <c r="C421" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D421" s="51"/>
@@ -6235,7 +6241,7 @@
         <v>19</v>
       </c>
       <c r="B422" s="51"/>
-      <c r="C422" s="31" t="s">
+      <c r="C422" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D422" s="51"/>
@@ -6248,7 +6254,7 @@
         <v>19</v>
       </c>
       <c r="B423" s="51"/>
-      <c r="C423" s="31" t="s">
+      <c r="C423" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D423" s="51"/>
@@ -6261,7 +6267,7 @@
         <v>19</v>
       </c>
       <c r="B424" s="51"/>
-      <c r="C424" s="31" t="s">
+      <c r="C424" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D424" s="51"/>
@@ -6274,7 +6280,7 @@
         <v>19</v>
       </c>
       <c r="B425" s="51"/>
-      <c r="C425" s="31" t="s">
+      <c r="C425" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D425" s="51"/>
@@ -6287,7 +6293,7 @@
         <v>19</v>
       </c>
       <c r="B426" s="51"/>
-      <c r="C426" s="31" t="s">
+      <c r="C426" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D426" s="51"/>
@@ -6300,7 +6306,7 @@
         <v>19</v>
       </c>
       <c r="B427" s="51"/>
-      <c r="C427" s="33" t="s">
+      <c r="C427" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D427" s="51"/>
@@ -6313,7 +6319,7 @@
         <v>19</v>
       </c>
       <c r="B428" s="51"/>
-      <c r="C428" s="33" t="s">
+      <c r="C428" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D428" s="51"/>
@@ -6326,7 +6332,7 @@
         <v>19</v>
       </c>
       <c r="B429" s="51"/>
-      <c r="C429" s="31" t="s">
+      <c r="C429" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D429" s="51"/>
@@ -6339,7 +6345,7 @@
         <v>19</v>
       </c>
       <c r="B430" s="51"/>
-      <c r="C430" s="31" t="s">
+      <c r="C430" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D430" s="51"/>
@@ -6352,7 +6358,7 @@
         <v>19</v>
       </c>
       <c r="B431" s="51"/>
-      <c r="C431" s="31" t="s">
+      <c r="C431" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D431" s="51"/>
@@ -6365,7 +6371,7 @@
         <v>19</v>
       </c>
       <c r="B432" s="51"/>
-      <c r="C432" s="31" t="s">
+      <c r="C432" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D432" s="51"/>
@@ -6378,7 +6384,7 @@
         <v>19</v>
       </c>
       <c r="B433" s="51"/>
-      <c r="C433" s="31" t="s">
+      <c r="C433" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D433" s="51"/>
@@ -6391,7 +6397,7 @@
         <v>19</v>
       </c>
       <c r="B434" s="51"/>
-      <c r="C434" s="31" t="s">
+      <c r="C434" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D434" s="51"/>
@@ -6404,7 +6410,7 @@
         <v>19</v>
       </c>
       <c r="B435" s="51"/>
-      <c r="C435" s="31" t="s">
+      <c r="C435" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D435" s="51"/>
@@ -6417,7 +6423,7 @@
         <v>19</v>
       </c>
       <c r="B436" s="51"/>
-      <c r="C436" s="31" t="s">
+      <c r="C436" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D436" s="51"/>
@@ -6430,7 +6436,7 @@
         <v>19</v>
       </c>
       <c r="B437" s="51"/>
-      <c r="C437" s="31" t="s">
+      <c r="C437" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D437" s="51"/>
@@ -6443,7 +6449,7 @@
         <v>19</v>
       </c>
       <c r="B438" s="51"/>
-      <c r="C438" s="33" t="s">
+      <c r="C438" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D438" s="51"/>
@@ -6456,7 +6462,7 @@
         <v>19</v>
       </c>
       <c r="B439" s="51"/>
-      <c r="C439" s="33" t="s">
+      <c r="C439" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D439" s="51"/>
@@ -6469,7 +6475,7 @@
         <v>19</v>
       </c>
       <c r="B440" s="51"/>
-      <c r="C440" s="31" t="s">
+      <c r="C440" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D440" s="51"/>
@@ -6482,7 +6488,7 @@
         <v>19</v>
       </c>
       <c r="B441" s="51"/>
-      <c r="C441" s="31" t="s">
+      <c r="C441" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D441" s="51"/>
@@ -6495,7 +6501,7 @@
         <v>19</v>
       </c>
       <c r="B442" s="51"/>
-      <c r="C442" s="31" t="s">
+      <c r="C442" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D442" s="51"/>
@@ -6508,7 +6514,7 @@
         <v>19</v>
       </c>
       <c r="B443" s="51"/>
-      <c r="C443" s="31" t="s">
+      <c r="C443" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D443" s="51"/>
@@ -6521,7 +6527,7 @@
         <v>19</v>
       </c>
       <c r="B444" s="51"/>
-      <c r="C444" s="31" t="s">
+      <c r="C444" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D444" s="51"/>
@@ -6534,7 +6540,7 @@
         <v>19</v>
       </c>
       <c r="B445" s="51"/>
-      <c r="C445" s="31" t="s">
+      <c r="C445" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D445" s="51"/>
@@ -6545,7 +6551,7 @@
     <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" s="34"/>
       <c r="B446" s="51"/>
-      <c r="C446" s="31" t="s">
+      <c r="C446" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D446" s="51"/>
@@ -6558,7 +6564,7 @@
         <v>19</v>
       </c>
       <c r="B447" s="51"/>
-      <c r="C447" s="31" t="s">
+      <c r="C447" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D447" s="51"/>
@@ -6571,7 +6577,7 @@
         <v>19</v>
       </c>
       <c r="B448" s="51"/>
-      <c r="C448" s="31" t="s">
+      <c r="C448" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D448" s="51"/>
@@ -6584,7 +6590,7 @@
         <v>19</v>
       </c>
       <c r="B449" s="51"/>
-      <c r="C449" s="33" t="s">
+      <c r="C449" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D449" s="51"/>
@@ -6597,7 +6603,7 @@
         <v>19</v>
       </c>
       <c r="B450" s="51"/>
-      <c r="C450" s="33" t="s">
+      <c r="C450" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D450" s="51"/>
@@ -6610,7 +6616,7 @@
         <v>19</v>
       </c>
       <c r="B451" s="51"/>
-      <c r="C451" s="31" t="s">
+      <c r="C451" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D451" s="51"/>
@@ -6623,7 +6629,7 @@
         <v>19</v>
       </c>
       <c r="B452" s="51"/>
-      <c r="C452" s="31" t="s">
+      <c r="C452" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D452" s="51"/>
@@ -6636,7 +6642,7 @@
         <v>19</v>
       </c>
       <c r="B453" s="51"/>
-      <c r="C453" s="31" t="s">
+      <c r="C453" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D453" s="51"/>
@@ -6649,7 +6655,7 @@
         <v>19</v>
       </c>
       <c r="B454" s="51"/>
-      <c r="C454" s="31" t="s">
+      <c r="C454" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D454" s="51"/>
@@ -6662,7 +6668,7 @@
         <v>19</v>
       </c>
       <c r="B455" s="51"/>
-      <c r="C455" s="31" t="s">
+      <c r="C455" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D455" s="51"/>
@@ -6675,7 +6681,7 @@
         <v>19</v>
       </c>
       <c r="B456" s="51"/>
-      <c r="C456" s="31" t="s">
+      <c r="C456" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D456" s="51"/>
@@ -6688,7 +6694,7 @@
         <v>19</v>
       </c>
       <c r="B457" s="51"/>
-      <c r="C457" s="31" t="s">
+      <c r="C457" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D457" s="51"/>
@@ -6701,7 +6707,7 @@
         <v>19</v>
       </c>
       <c r="B458" s="51"/>
-      <c r="C458" s="31" t="s">
+      <c r="C458" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D458" s="51"/>
@@ -6714,7 +6720,7 @@
         <v>19</v>
       </c>
       <c r="B459" s="51"/>
-      <c r="C459" s="31" t="s">
+      <c r="C459" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D459" s="51"/>
@@ -6727,7 +6733,7 @@
         <v>19</v>
       </c>
       <c r="B460" s="51"/>
-      <c r="C460" s="33" t="s">
+      <c r="C460" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D460" s="51"/>
@@ -6740,7 +6746,7 @@
         <v>19</v>
       </c>
       <c r="B461" s="51"/>
-      <c r="C461" s="33" t="s">
+      <c r="C461" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D461" s="51"/>
@@ -6753,7 +6759,7 @@
         <v>19</v>
       </c>
       <c r="B462" s="51"/>
-      <c r="C462" s="31" t="s">
+      <c r="C462" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D462" s="51"/>
@@ -6766,7 +6772,7 @@
         <v>19</v>
       </c>
       <c r="B463" s="51"/>
-      <c r="C463" s="31" t="s">
+      <c r="C463" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D463" s="51"/>
@@ -6779,7 +6785,7 @@
         <v>19</v>
       </c>
       <c r="B464" s="51"/>
-      <c r="C464" s="31" t="s">
+      <c r="C464" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D464" s="51"/>
@@ -6792,7 +6798,7 @@
         <v>19</v>
       </c>
       <c r="B465" s="51"/>
-      <c r="C465" s="31" t="s">
+      <c r="C465" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D465" s="51"/>
@@ -6805,7 +6811,7 @@
         <v>19</v>
       </c>
       <c r="B466" s="51"/>
-      <c r="C466" s="31" t="s">
+      <c r="C466" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D466" s="51"/>
@@ -6818,7 +6824,7 @@
         <v>19</v>
       </c>
       <c r="B467" s="51"/>
-      <c r="C467" s="31" t="s">
+      <c r="C467" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D467" s="51"/>
@@ -6831,7 +6837,7 @@
         <v>19</v>
       </c>
       <c r="B468" s="51"/>
-      <c r="C468" s="31" t="s">
+      <c r="C468" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D468" s="51"/>
@@ -6844,7 +6850,7 @@
         <v>19</v>
       </c>
       <c r="B469" s="51"/>
-      <c r="C469" s="31" t="s">
+      <c r="C469" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D469" s="51"/>
@@ -6857,7 +6863,7 @@
         <v>19</v>
       </c>
       <c r="B470" s="51"/>
-      <c r="C470" s="31" t="s">
+      <c r="C470" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D470" s="51"/>
@@ -6870,7 +6876,7 @@
         <v>19</v>
       </c>
       <c r="B471" s="51"/>
-      <c r="C471" s="33" t="s">
+      <c r="C471" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D471" s="51"/>
@@ -6883,7 +6889,7 @@
         <v>19</v>
       </c>
       <c r="B472" s="51"/>
-      <c r="C472" s="33" t="s">
+      <c r="C472" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D472" s="51"/>
@@ -6896,7 +6902,7 @@
         <v>19</v>
       </c>
       <c r="B473" s="51"/>
-      <c r="C473" s="31" t="s">
+      <c r="C473" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D473" s="51"/>
@@ -6909,7 +6915,7 @@
         <v>19</v>
       </c>
       <c r="B474" s="51"/>
-      <c r="C474" s="31" t="s">
+      <c r="C474" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D474" s="51"/>
@@ -6922,7 +6928,7 @@
         <v>19</v>
       </c>
       <c r="B475" s="51"/>
-      <c r="C475" s="31" t="s">
+      <c r="C475" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D475" s="51"/>
@@ -6935,7 +6941,7 @@
         <v>19</v>
       </c>
       <c r="B476" s="51"/>
-      <c r="C476" s="31" t="s">
+      <c r="C476" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D476" s="51"/>
@@ -6946,7 +6952,7 @@
     <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" s="34"/>
       <c r="B477" s="51"/>
-      <c r="C477" s="31" t="s">
+      <c r="C477" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D477" s="51"/>
@@ -6959,7 +6965,7 @@
         <v>19</v>
       </c>
       <c r="B478" s="51"/>
-      <c r="C478" s="31" t="s">
+      <c r="C478" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D478" s="51"/>
@@ -6972,7 +6978,7 @@
         <v>19</v>
       </c>
       <c r="B479" s="51"/>
-      <c r="C479" s="31" t="s">
+      <c r="C479" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D479" s="51"/>
@@ -6985,7 +6991,7 @@
         <v>19</v>
       </c>
       <c r="B480" s="51"/>
-      <c r="C480" s="31" t="s">
+      <c r="C480" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D480" s="51"/>
@@ -6998,7 +7004,7 @@
         <v>19</v>
       </c>
       <c r="B481" s="51"/>
-      <c r="C481" s="31" t="s">
+      <c r="C481" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D481" s="51"/>
@@ -7011,7 +7017,7 @@
         <v>19</v>
       </c>
       <c r="B482" s="51"/>
-      <c r="C482" s="33" t="s">
+      <c r="C482" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D482" s="51"/>
@@ -7024,7 +7030,7 @@
         <v>19</v>
       </c>
       <c r="B483" s="51"/>
-      <c r="C483" s="33" t="s">
+      <c r="C483" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D483" s="51"/>
@@ -7037,7 +7043,7 @@
         <v>19</v>
       </c>
       <c r="B484" s="51"/>
-      <c r="C484" s="31" t="s">
+      <c r="C484" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D484" s="51"/>
@@ -7050,7 +7056,7 @@
         <v>19</v>
       </c>
       <c r="B485" s="51"/>
-      <c r="C485" s="31" t="s">
+      <c r="C485" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D485" s="51"/>
@@ -7063,7 +7069,7 @@
         <v>19</v>
       </c>
       <c r="B486" s="51"/>
-      <c r="C486" s="31" t="s">
+      <c r="C486" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D486" s="51"/>
@@ -7076,7 +7082,7 @@
         <v>19</v>
       </c>
       <c r="B487" s="51"/>
-      <c r="C487" s="31" t="s">
+      <c r="C487" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D487" s="51"/>
@@ -7089,7 +7095,7 @@
         <v>19</v>
       </c>
       <c r="B488" s="51"/>
-      <c r="C488" s="31" t="s">
+      <c r="C488" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D488" s="51"/>
@@ -7102,7 +7108,7 @@
         <v>19</v>
       </c>
       <c r="B489" s="51"/>
-      <c r="C489" s="31" t="s">
+      <c r="C489" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D489" s="51"/>
@@ -7115,7 +7121,7 @@
         <v>19</v>
       </c>
       <c r="B490" s="51"/>
-      <c r="C490" s="31" t="s">
+      <c r="C490" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D490" s="51"/>
@@ -7128,7 +7134,7 @@
         <v>19</v>
       </c>
       <c r="B491" s="51"/>
-      <c r="C491" s="31" t="s">
+      <c r="C491" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D491" s="51"/>
@@ -7141,7 +7147,7 @@
         <v>19</v>
       </c>
       <c r="B492" s="51"/>
-      <c r="C492" s="31" t="s">
+      <c r="C492" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D492" s="51"/>
@@ -7154,7 +7160,7 @@
         <v>19</v>
       </c>
       <c r="B493" s="51"/>
-      <c r="C493" s="33" t="s">
+      <c r="C493" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D493" s="51"/>
@@ -7167,7 +7173,7 @@
         <v>19</v>
       </c>
       <c r="B494" s="51"/>
-      <c r="C494" s="33" t="s">
+      <c r="C494" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D494" s="51"/>
@@ -7180,7 +7186,7 @@
         <v>19</v>
       </c>
       <c r="B495" s="51"/>
-      <c r="C495" s="31" t="s">
+      <c r="C495" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D495" s="51"/>
@@ -7193,7 +7199,7 @@
         <v>19</v>
       </c>
       <c r="B496" s="51"/>
-      <c r="C496" s="31" t="s">
+      <c r="C496" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D496" s="51"/>
@@ -7206,7 +7212,7 @@
         <v>19</v>
       </c>
       <c r="B497" s="51"/>
-      <c r="C497" s="31" t="s">
+      <c r="C497" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D497" s="51"/>
@@ -7219,7 +7225,7 @@
         <v>19</v>
       </c>
       <c r="B498" s="51"/>
-      <c r="C498" s="31" t="s">
+      <c r="C498" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D498" s="51"/>
@@ -7232,7 +7238,7 @@
         <v>19</v>
       </c>
       <c r="B499" s="51"/>
-      <c r="C499" s="31" t="s">
+      <c r="C499" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D499" s="51"/>
@@ -7245,7 +7251,7 @@
         <v>19</v>
       </c>
       <c r="B500" s="51"/>
-      <c r="C500" s="31" t="s">
+      <c r="C500" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D500" s="51"/>
@@ -7258,7 +7264,7 @@
         <v>19</v>
       </c>
       <c r="B501" s="51"/>
-      <c r="C501" s="31" t="s">
+      <c r="C501" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D501" s="51"/>
@@ -7271,7 +7277,7 @@
         <v>19</v>
       </c>
       <c r="B502" s="51"/>
-      <c r="C502" s="31" t="s">
+      <c r="C502" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D502" s="51"/>
@@ -7284,7 +7290,7 @@
         <v>19</v>
       </c>
       <c r="B503" s="51"/>
-      <c r="C503" s="31" t="s">
+      <c r="C503" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D503" s="51"/>
@@ -7297,7 +7303,7 @@
         <v>19</v>
       </c>
       <c r="B504" s="51"/>
-      <c r="C504" s="33" t="s">
+      <c r="C504" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D504" s="51"/>
@@ -7310,7 +7316,7 @@
         <v>19</v>
       </c>
       <c r="B505" s="51"/>
-      <c r="C505" s="33" t="s">
+      <c r="C505" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D505" s="51"/>
@@ -7323,7 +7329,7 @@
         <v>19</v>
       </c>
       <c r="B506" s="51"/>
-      <c r="C506" s="31" t="s">
+      <c r="C506" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D506" s="51"/>
@@ -7336,7 +7342,7 @@
         <v>19</v>
       </c>
       <c r="B507" s="51"/>
-      <c r="C507" s="31" t="s">
+      <c r="C507" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D507" s="51"/>
@@ -7347,7 +7353,7 @@
     <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" s="34"/>
       <c r="B508" s="51"/>
-      <c r="C508" s="31" t="s">
+      <c r="C508" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D508" s="51"/>
@@ -7360,7 +7366,7 @@
         <v>19</v>
       </c>
       <c r="B509" s="51"/>
-      <c r="C509" s="31" t="s">
+      <c r="C509" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D509" s="51"/>
@@ -7373,7 +7379,7 @@
         <v>19</v>
       </c>
       <c r="B510" s="51"/>
-      <c r="C510" s="31" t="s">
+      <c r="C510" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D510" s="51"/>
@@ -7386,7 +7392,7 @@
         <v>19</v>
       </c>
       <c r="B511" s="51"/>
-      <c r="C511" s="31" t="s">
+      <c r="C511" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D511" s="51"/>
@@ -7399,7 +7405,7 @@
         <v>19</v>
       </c>
       <c r="B512" s="51"/>
-      <c r="C512" s="31" t="s">
+      <c r="C512" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D512" s="51"/>
@@ -7412,7 +7418,7 @@
         <v>19</v>
       </c>
       <c r="B513" s="51"/>
-      <c r="C513" s="31" t="s">
+      <c r="C513" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D513" s="51"/>
@@ -7425,7 +7431,7 @@
         <v>19</v>
       </c>
       <c r="B514" s="51"/>
-      <c r="C514" s="31" t="s">
+      <c r="C514" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D514" s="51"/>
@@ -7438,7 +7444,7 @@
         <v>19</v>
       </c>
       <c r="B515" s="51"/>
-      <c r="C515" s="33" t="s">
+      <c r="C515" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D515" s="51"/>
@@ -7451,7 +7457,7 @@
         <v>19</v>
       </c>
       <c r="B516" s="51"/>
-      <c r="C516" s="33" t="s">
+      <c r="C516" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D516" s="51"/>
@@ -7464,7 +7470,7 @@
         <v>19</v>
       </c>
       <c r="B517" s="51"/>
-      <c r="C517" s="31" t="s">
+      <c r="C517" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D517" s="51"/>
@@ -7477,7 +7483,7 @@
         <v>19</v>
       </c>
       <c r="B518" s="51"/>
-      <c r="C518" s="31" t="s">
+      <c r="C518" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D518" s="51"/>
@@ -7490,7 +7496,7 @@
         <v>19</v>
       </c>
       <c r="B519" s="51"/>
-      <c r="C519" s="31" t="s">
+      <c r="C519" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D519" s="51"/>
@@ -7503,7 +7509,7 @@
         <v>19</v>
       </c>
       <c r="B520" s="51"/>
-      <c r="C520" s="31" t="s">
+      <c r="C520" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D520" s="51"/>
@@ -7516,7 +7522,7 @@
         <v>19</v>
       </c>
       <c r="B521" s="51"/>
-      <c r="C521" s="31" t="s">
+      <c r="C521" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D521" s="51"/>
@@ -7529,7 +7535,7 @@
         <v>19</v>
       </c>
       <c r="B522" s="51"/>
-      <c r="C522" s="31" t="s">
+      <c r="C522" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D522" s="51"/>
@@ -7542,7 +7548,7 @@
         <v>19</v>
       </c>
       <c r="B523" s="51"/>
-      <c r="C523" s="31" t="s">
+      <c r="C523" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D523" s="51"/>
@@ -7555,7 +7561,7 @@
         <v>19</v>
       </c>
       <c r="B524" s="51"/>
-      <c r="C524" s="31" t="s">
+      <c r="C524" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D524" s="51"/>
@@ -7568,7 +7574,7 @@
         <v>19</v>
       </c>
       <c r="B525" s="51"/>
-      <c r="C525" s="31" t="s">
+      <c r="C525" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D525" s="51"/>
@@ -7581,7 +7587,7 @@
         <v>19</v>
       </c>
       <c r="B526" s="51"/>
-      <c r="C526" s="33" t="s">
+      <c r="C526" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D526" s="51"/>
@@ -7594,7 +7600,7 @@
         <v>19</v>
       </c>
       <c r="B527" s="51"/>
-      <c r="C527" s="33" t="s">
+      <c r="C527" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D527" s="51"/>
@@ -7607,7 +7613,7 @@
         <v>19</v>
       </c>
       <c r="B528" s="51"/>
-      <c r="C528" s="31" t="s">
+      <c r="C528" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D528" s="51"/>
@@ -7620,7 +7626,7 @@
         <v>19</v>
       </c>
       <c r="B529" s="51"/>
-      <c r="C529" s="31" t="s">
+      <c r="C529" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D529" s="51"/>
@@ -7633,7 +7639,7 @@
         <v>19</v>
       </c>
       <c r="B530" s="51"/>
-      <c r="C530" s="31" t="s">
+      <c r="C530" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D530" s="51"/>
@@ -7646,7 +7652,7 @@
         <v>19</v>
       </c>
       <c r="B531" s="51"/>
-      <c r="C531" s="31" t="s">
+      <c r="C531" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D531" s="51"/>
@@ -7659,7 +7665,7 @@
         <v>19</v>
       </c>
       <c r="B532" s="51"/>
-      <c r="C532" s="31" t="s">
+      <c r="C532" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D532" s="51"/>
@@ -7672,7 +7678,7 @@
         <v>19</v>
       </c>
       <c r="B533" s="51"/>
-      <c r="C533" s="31" t="s">
+      <c r="C533" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D533" s="51"/>
@@ -7685,7 +7691,7 @@
         <v>19</v>
       </c>
       <c r="B534" s="51"/>
-      <c r="C534" s="31" t="s">
+      <c r="C534" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D534" s="51"/>
@@ -7698,7 +7704,7 @@
         <v>19</v>
       </c>
       <c r="B535" s="51"/>
-      <c r="C535" s="31" t="s">
+      <c r="C535" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D535" s="51"/>
@@ -7711,7 +7717,7 @@
         <v>19</v>
       </c>
       <c r="B536" s="51"/>
-      <c r="C536" s="31" t="s">
+      <c r="C536" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D536" s="51"/>
@@ -7724,7 +7730,7 @@
         <v>19</v>
       </c>
       <c r="B537" s="51"/>
-      <c r="C537" s="33" t="s">
+      <c r="C537" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D537" s="51"/>
@@ -7737,7 +7743,7 @@
         <v>19</v>
       </c>
       <c r="B538" s="51"/>
-      <c r="C538" s="33" t="s">
+      <c r="C538" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D538" s="51"/>
@@ -7748,7 +7754,7 @@
     <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A539" s="34"/>
       <c r="B539" s="51"/>
-      <c r="C539" s="31" t="s">
+      <c r="C539" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D539" s="51"/>
@@ -7761,7 +7767,7 @@
         <v>19</v>
       </c>
       <c r="B540" s="51"/>
-      <c r="C540" s="31" t="s">
+      <c r="C540" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D540" s="51"/>
@@ -7774,7 +7780,7 @@
         <v>19</v>
       </c>
       <c r="B541" s="51"/>
-      <c r="C541" s="31" t="s">
+      <c r="C541" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D541" s="51"/>
@@ -7787,7 +7793,7 @@
         <v>19</v>
       </c>
       <c r="B542" s="51"/>
-      <c r="C542" s="31" t="s">
+      <c r="C542" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D542" s="51"/>
@@ -7800,7 +7806,7 @@
         <v>19</v>
       </c>
       <c r="B543" s="51"/>
-      <c r="C543" s="31" t="s">
+      <c r="C543" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D543" s="51"/>
@@ -7813,7 +7819,7 @@
         <v>19</v>
       </c>
       <c r="B544" s="51"/>
-      <c r="C544" s="31" t="s">
+      <c r="C544" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D544" s="51"/>
@@ -7826,7 +7832,7 @@
         <v>19</v>
       </c>
       <c r="B545" s="51"/>
-      <c r="C545" s="31" t="s">
+      <c r="C545" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D545" s="51"/>
@@ -7839,7 +7845,7 @@
         <v>19</v>
       </c>
       <c r="B546" s="51"/>
-      <c r="C546" s="31" t="s">
+      <c r="C546" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D546" s="51"/>
@@ -7852,7 +7858,7 @@
         <v>19</v>
       </c>
       <c r="B547" s="51"/>
-      <c r="C547" s="31" t="s">
+      <c r="C547" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D547" s="51"/>
@@ -7865,7 +7871,7 @@
         <v>19</v>
       </c>
       <c r="B548" s="51"/>
-      <c r="C548" s="33" t="s">
+      <c r="C548" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D548" s="51"/>
@@ -7878,7 +7884,7 @@
         <v>19</v>
       </c>
       <c r="B549" s="51"/>
-      <c r="C549" s="33" t="s">
+      <c r="C549" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D549" s="51"/>
@@ -7891,7 +7897,7 @@
         <v>19</v>
       </c>
       <c r="B550" s="51"/>
-      <c r="C550" s="31" t="s">
+      <c r="C550" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D550" s="51"/>
@@ -7904,7 +7910,7 @@
         <v>19</v>
       </c>
       <c r="B551" s="51"/>
-      <c r="C551" s="31" t="s">
+      <c r="C551" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D551" s="51"/>
@@ -7917,7 +7923,7 @@
         <v>19</v>
       </c>
       <c r="B552" s="51"/>
-      <c r="C552" s="31" t="s">
+      <c r="C552" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D552" s="51"/>
@@ -7930,7 +7936,7 @@
         <v>19</v>
       </c>
       <c r="B553" s="51"/>
-      <c r="C553" s="31" t="s">
+      <c r="C553" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D553" s="51"/>
@@ -7943,7 +7949,7 @@
         <v>19</v>
       </c>
       <c r="B554" s="51"/>
-      <c r="C554" s="31" t="s">
+      <c r="C554" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D554" s="51"/>
@@ -7956,7 +7962,7 @@
         <v>19</v>
       </c>
       <c r="B555" s="51"/>
-      <c r="C555" s="31" t="s">
+      <c r="C555" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D555" s="51"/>
@@ -7969,7 +7975,7 @@
         <v>19</v>
       </c>
       <c r="B556" s="51"/>
-      <c r="C556" s="31" t="s">
+      <c r="C556" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D556" s="51"/>
@@ -7982,7 +7988,7 @@
         <v>19</v>
       </c>
       <c r="B557" s="51"/>
-      <c r="C557" s="31" t="s">
+      <c r="C557" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D557" s="51"/>
@@ -7995,7 +8001,7 @@
         <v>19</v>
       </c>
       <c r="B558" s="51"/>
-      <c r="C558" s="31" t="s">
+      <c r="C558" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D558" s="51"/>
@@ -8008,7 +8014,7 @@
         <v>19</v>
       </c>
       <c r="B559" s="51"/>
-      <c r="C559" s="33" t="s">
+      <c r="C559" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D559" s="51"/>
@@ -8021,7 +8027,7 @@
         <v>19</v>
       </c>
       <c r="B560" s="51"/>
-      <c r="C560" s="33" t="s">
+      <c r="C560" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D560" s="51"/>
@@ -8034,7 +8040,7 @@
         <v>19</v>
       </c>
       <c r="B561" s="51"/>
-      <c r="C561" s="31" t="s">
+      <c r="C561" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D561" s="51"/>
@@ -8047,7 +8053,7 @@
         <v>19</v>
       </c>
       <c r="B562" s="51"/>
-      <c r="C562" s="31" t="s">
+      <c r="C562" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D562" s="51"/>
@@ -8060,7 +8066,7 @@
         <v>19</v>
       </c>
       <c r="B563" s="51"/>
-      <c r="C563" s="31" t="s">
+      <c r="C563" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D563" s="51"/>
@@ -8073,7 +8079,7 @@
         <v>19</v>
       </c>
       <c r="B564" s="51"/>
-      <c r="C564" s="31" t="s">
+      <c r="C564" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D564" s="51"/>
@@ -8086,7 +8092,7 @@
         <v>19</v>
       </c>
       <c r="B565" s="51"/>
-      <c r="C565" s="31" t="s">
+      <c r="C565" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D565" s="51"/>
@@ -8099,7 +8105,7 @@
         <v>19</v>
       </c>
       <c r="B566" s="51"/>
-      <c r="C566" s="31" t="s">
+      <c r="C566" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D566" s="51"/>
@@ -8112,7 +8118,7 @@
         <v>19</v>
       </c>
       <c r="B567" s="51"/>
-      <c r="C567" s="31" t="s">
+      <c r="C567" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D567" s="51"/>
@@ -8125,7 +8131,7 @@
         <v>19</v>
       </c>
       <c r="B568" s="51"/>
-      <c r="C568" s="31" t="s">
+      <c r="C568" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D568" s="51"/>
@@ -8138,7 +8144,7 @@
         <v>19</v>
       </c>
       <c r="B569" s="51"/>
-      <c r="C569" s="31" t="s">
+      <c r="C569" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D569" s="51"/>
@@ -8151,7 +8157,7 @@
         <v>19</v>
       </c>
       <c r="B570" s="51"/>
-      <c r="C570" s="33" t="s">
+      <c r="C570" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D570" s="51"/>
@@ -8164,7 +8170,7 @@
         <v>19</v>
       </c>
       <c r="B571" s="51"/>
-      <c r="C571" s="33" t="s">
+      <c r="C571" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D571" s="51"/>
@@ -8177,7 +8183,7 @@
         <v>19</v>
       </c>
       <c r="B572" s="51"/>
-      <c r="C572" s="31" t="s">
+      <c r="C572" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D572" s="51"/>
@@ -8190,7 +8196,7 @@
         <v>19</v>
       </c>
       <c r="B573" s="51"/>
-      <c r="C573" s="31" t="s">
+      <c r="C573" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D573" s="51"/>
@@ -8203,7 +8209,7 @@
         <v>19</v>
       </c>
       <c r="B574" s="51"/>
-      <c r="C574" s="31" t="s">
+      <c r="C574" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D574" s="51"/>
@@ -8216,7 +8222,7 @@
         <v>19</v>
       </c>
       <c r="B575" s="51"/>
-      <c r="C575" s="31" t="s">
+      <c r="C575" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D575" s="51"/>
@@ -8229,7 +8235,7 @@
         <v>19</v>
       </c>
       <c r="B576" s="51"/>
-      <c r="C576" s="31" t="s">
+      <c r="C576" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D576" s="51"/>
@@ -8242,7 +8248,7 @@
         <v>19</v>
       </c>
       <c r="B577" s="51"/>
-      <c r="C577" s="31" t="s">
+      <c r="C577" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D577" s="51"/>
@@ -8255,7 +8261,7 @@
         <v>19</v>
       </c>
       <c r="B578" s="51"/>
-      <c r="C578" s="31" t="s">
+      <c r="C578" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D578" s="51"/>
@@ -8268,7 +8274,7 @@
         <v>19</v>
       </c>
       <c r="B579" s="51"/>
-      <c r="C579" s="31" t="s">
+      <c r="C579" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D579" s="51"/>
@@ -8281,7 +8287,7 @@
         <v>19</v>
       </c>
       <c r="B580" s="51"/>
-      <c r="C580" s="31" t="s">
+      <c r="C580" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D580" s="51"/>
@@ -8294,7 +8300,7 @@
         <v>19</v>
       </c>
       <c r="B581" s="51"/>
-      <c r="C581" s="33" t="s">
+      <c r="C581" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D581" s="51"/>
@@ -8307,7 +8313,7 @@
         <v>19</v>
       </c>
       <c r="B582" s="51"/>
-      <c r="C582" s="33" t="s">
+      <c r="C582" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D582" s="51"/>
@@ -8320,7 +8326,7 @@
         <v>19</v>
       </c>
       <c r="B583" s="51"/>
-      <c r="C583" s="31" t="s">
+      <c r="C583" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D583" s="51"/>
@@ -8333,7 +8339,7 @@
         <v>19</v>
       </c>
       <c r="B584" s="51"/>
-      <c r="C584" s="31" t="s">
+      <c r="C584" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D584" s="51"/>
@@ -8346,7 +8352,7 @@
         <v>19</v>
       </c>
       <c r="B585" s="51"/>
-      <c r="C585" s="31" t="s">
+      <c r="C585" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D585" s="51"/>
@@ -8359,7 +8365,7 @@
         <v>19</v>
       </c>
       <c r="B586" s="51"/>
-      <c r="C586" s="31" t="s">
+      <c r="C586" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D586" s="51"/>
@@ -8372,7 +8378,7 @@
         <v>19</v>
       </c>
       <c r="B587" s="51"/>
-      <c r="C587" s="31" t="s">
+      <c r="C587" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D587" s="51"/>
@@ -8385,7 +8391,7 @@
         <v>19</v>
       </c>
       <c r="B588" s="51"/>
-      <c r="C588" s="31" t="s">
+      <c r="C588" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D588" s="51"/>
@@ -8398,7 +8404,7 @@
         <v>19</v>
       </c>
       <c r="B589" s="51"/>
-      <c r="C589" s="31" t="s">
+      <c r="C589" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D589" s="51"/>
@@ -8411,7 +8417,7 @@
         <v>19</v>
       </c>
       <c r="B590" s="51"/>
-      <c r="C590" s="31" t="s">
+      <c r="C590" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D590" s="51"/>
@@ -8424,7 +8430,7 @@
         <v>19</v>
       </c>
       <c r="B591" s="51"/>
-      <c r="C591" s="31" t="s">
+      <c r="C591" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D591" s="51"/>
@@ -8437,7 +8443,7 @@
         <v>19</v>
       </c>
       <c r="B592" s="51"/>
-      <c r="C592" s="33" t="s">
+      <c r="C592" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D592" s="51"/>
@@ -8450,7 +8456,7 @@
         <v>19</v>
       </c>
       <c r="B593" s="51"/>
-      <c r="C593" s="33" t="s">
+      <c r="C593" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D593" s="51"/>
@@ -8463,7 +8469,7 @@
         <v>19</v>
       </c>
       <c r="B594" s="51"/>
-      <c r="C594" s="31" t="s">
+      <c r="C594" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D594" s="51"/>
@@ -8476,7 +8482,7 @@
         <v>19</v>
       </c>
       <c r="B595" s="51"/>
-      <c r="C595" s="31" t="s">
+      <c r="C595" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D595" s="51"/>
@@ -8489,7 +8495,7 @@
         <v>19</v>
       </c>
       <c r="B596" s="51"/>
-      <c r="C596" s="31" t="s">
+      <c r="C596" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D596" s="51"/>
@@ -8502,7 +8508,7 @@
         <v>19</v>
       </c>
       <c r="B597" s="51"/>
-      <c r="C597" s="31" t="s">
+      <c r="C597" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D597" s="51"/>
@@ -8515,7 +8521,7 @@
         <v>19</v>
       </c>
       <c r="B598" s="51"/>
-      <c r="C598" s="31" t="s">
+      <c r="C598" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D598" s="51"/>
@@ -8526,7 +8532,7 @@
     <row r="599" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A599" s="34"/>
       <c r="B599" s="51"/>
-      <c r="C599" s="31" t="s">
+      <c r="C599" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D599" s="51"/>
@@ -8539,7 +8545,7 @@
         <v>19</v>
       </c>
       <c r="B600" s="51"/>
-      <c r="C600" s="31" t="s">
+      <c r="C600" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D600" s="51"/>
@@ -8552,7 +8558,7 @@
         <v>19</v>
       </c>
       <c r="B601" s="51"/>
-      <c r="C601" s="31" t="s">
+      <c r="C601" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D601" s="51"/>
@@ -8565,7 +8571,7 @@
         <v>19</v>
       </c>
       <c r="B602" s="51"/>
-      <c r="C602" s="31" t="s">
+      <c r="C602" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D602" s="51"/>
@@ -8578,7 +8584,7 @@
         <v>19</v>
       </c>
       <c r="B603" s="51"/>
-      <c r="C603" s="33" t="s">
+      <c r="C603" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D603" s="51"/>
@@ -8591,7 +8597,7 @@
         <v>19</v>
       </c>
       <c r="B604" s="51"/>
-      <c r="C604" s="33" t="s">
+      <c r="C604" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D604" s="51"/>
@@ -8604,7 +8610,7 @@
         <v>19</v>
       </c>
       <c r="B605" s="51"/>
-      <c r="C605" s="31" t="s">
+      <c r="C605" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D605" s="51"/>
@@ -8617,7 +8623,7 @@
         <v>19</v>
       </c>
       <c r="B606" s="51"/>
-      <c r="C606" s="31" t="s">
+      <c r="C606" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D606" s="51"/>
@@ -8630,7 +8636,7 @@
         <v>19</v>
       </c>
       <c r="B607" s="51"/>
-      <c r="C607" s="31" t="s">
+      <c r="C607" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D607" s="51"/>
@@ -8643,7 +8649,7 @@
         <v>19</v>
       </c>
       <c r="B608" s="51"/>
-      <c r="C608" s="31" t="s">
+      <c r="C608" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D608" s="51"/>
@@ -8656,7 +8662,7 @@
         <v>19</v>
       </c>
       <c r="B609" s="51"/>
-      <c r="C609" s="31" t="s">
+      <c r="C609" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D609" s="51"/>
@@ -8669,7 +8675,7 @@
         <v>19</v>
       </c>
       <c r="B610" s="51"/>
-      <c r="C610" s="31" t="s">
+      <c r="C610" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D610" s="51"/>
@@ -8682,7 +8688,7 @@
         <v>19</v>
       </c>
       <c r="B611" s="51"/>
-      <c r="C611" s="31" t="s">
+      <c r="C611" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D611" s="51"/>
@@ -8695,7 +8701,7 @@
         <v>19</v>
       </c>
       <c r="B612" s="51"/>
-      <c r="C612" s="31" t="s">
+      <c r="C612" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D612" s="51"/>
@@ -8708,7 +8714,7 @@
         <v>19</v>
       </c>
       <c r="B613" s="51"/>
-      <c r="C613" s="31" t="s">
+      <c r="C613" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D613" s="51"/>
@@ -8721,7 +8727,7 @@
         <v>19</v>
       </c>
       <c r="B614" s="51"/>
-      <c r="C614" s="33" t="s">
+      <c r="C614" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D614" s="51"/>
@@ -8734,7 +8740,7 @@
         <v>19</v>
       </c>
       <c r="B615" s="51"/>
-      <c r="C615" s="33" t="s">
+      <c r="C615" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D615" s="51"/>
@@ -8747,7 +8753,7 @@
         <v>19</v>
       </c>
       <c r="B616" s="51"/>
-      <c r="C616" s="31" t="s">
+      <c r="C616" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D616" s="51"/>
@@ -8760,7 +8766,7 @@
         <v>19</v>
       </c>
       <c r="B617" s="51"/>
-      <c r="C617" s="31" t="s">
+      <c r="C617" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D617" s="51"/>
@@ -8773,7 +8779,7 @@
         <v>19</v>
       </c>
       <c r="B618" s="51"/>
-      <c r="C618" s="31" t="s">
+      <c r="C618" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D618" s="51"/>
@@ -8786,7 +8792,7 @@
         <v>19</v>
       </c>
       <c r="B619" s="51"/>
-      <c r="C619" s="31" t="s">
+      <c r="C619" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D619" s="51"/>
@@ -8799,7 +8805,7 @@
         <v>19</v>
       </c>
       <c r="B620" s="51"/>
-      <c r="C620" s="31" t="s">
+      <c r="C620" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D620" s="51"/>
@@ -8812,7 +8818,7 @@
         <v>19</v>
       </c>
       <c r="B621" s="51"/>
-      <c r="C621" s="31" t="s">
+      <c r="C621" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D621" s="51"/>
@@ -8825,7 +8831,7 @@
         <v>19</v>
       </c>
       <c r="B622" s="51"/>
-      <c r="C622" s="31" t="s">
+      <c r="C622" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D622" s="51"/>
@@ -8838,7 +8844,7 @@
         <v>19</v>
       </c>
       <c r="B623" s="51"/>
-      <c r="C623" s="31" t="s">
+      <c r="C623" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D623" s="51"/>
@@ -8851,7 +8857,7 @@
         <v>19</v>
       </c>
       <c r="B624" s="51"/>
-      <c r="C624" s="31" t="s">
+      <c r="C624" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D624" s="51"/>
@@ -8864,7 +8870,7 @@
         <v>19</v>
       </c>
       <c r="B625" s="51"/>
-      <c r="C625" s="33" t="s">
+      <c r="C625" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D625" s="51"/>
@@ -8877,7 +8883,7 @@
         <v>19</v>
       </c>
       <c r="B626" s="51"/>
-      <c r="C626" s="33" t="s">
+      <c r="C626" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D626" s="51"/>
@@ -8890,7 +8896,7 @@
         <v>19</v>
       </c>
       <c r="B627" s="51"/>
-      <c r="C627" s="31" t="s">
+      <c r="C627" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D627" s="51"/>
@@ -8903,7 +8909,7 @@
         <v>19</v>
       </c>
       <c r="B628" s="51"/>
-      <c r="C628" s="31" t="s">
+      <c r="C628" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D628" s="51"/>
@@ -8916,7 +8922,7 @@
         <v>19</v>
       </c>
       <c r="B629" s="51"/>
-      <c r="C629" s="31" t="s">
+      <c r="C629" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D629" s="51"/>
@@ -8927,7 +8933,7 @@
     <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630" s="34"/>
       <c r="B630" s="51"/>
-      <c r="C630" s="31" t="s">
+      <c r="C630" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D630" s="51"/>
@@ -8940,7 +8946,7 @@
         <v>19</v>
       </c>
       <c r="B631" s="51"/>
-      <c r="C631" s="31" t="s">
+      <c r="C631" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D631" s="51"/>
@@ -8953,7 +8959,7 @@
         <v>19</v>
       </c>
       <c r="B632" s="51"/>
-      <c r="C632" s="31" t="s">
+      <c r="C632" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D632" s="51"/>
@@ -8966,7 +8972,7 @@
         <v>19</v>
       </c>
       <c r="B633" s="51"/>
-      <c r="C633" s="31" t="s">
+      <c r="C633" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D633" s="51"/>
@@ -8979,7 +8985,7 @@
         <v>19</v>
       </c>
       <c r="B634" s="51"/>
-      <c r="C634" s="31" t="s">
+      <c r="C634" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D634" s="51"/>
@@ -8992,7 +8998,7 @@
         <v>19</v>
       </c>
       <c r="B635" s="51"/>
-      <c r="C635" s="31" t="s">
+      <c r="C635" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D635" s="51"/>
@@ -9005,7 +9011,7 @@
         <v>19</v>
       </c>
       <c r="B636" s="51"/>
-      <c r="C636" s="33" t="s">
+      <c r="C636" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D636" s="51"/>
@@ -9018,7 +9024,7 @@
         <v>19</v>
       </c>
       <c r="B637" s="51"/>
-      <c r="C637" s="33" t="s">
+      <c r="C637" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D637" s="51"/>
@@ -9031,7 +9037,7 @@
         <v>19</v>
       </c>
       <c r="B638" s="51"/>
-      <c r="C638" s="31" t="s">
+      <c r="C638" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D638" s="51"/>
@@ -9044,7 +9050,7 @@
         <v>19</v>
       </c>
       <c r="B639" s="51"/>
-      <c r="C639" s="31" t="s">
+      <c r="C639" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D639" s="51"/>
@@ -9057,7 +9063,7 @@
         <v>19</v>
       </c>
       <c r="B640" s="51"/>
-      <c r="C640" s="31" t="s">
+      <c r="C640" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D640" s="51"/>
@@ -9070,7 +9076,7 @@
         <v>19</v>
       </c>
       <c r="B641" s="51"/>
-      <c r="C641" s="31" t="s">
+      <c r="C641" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D641" s="51"/>
@@ -9083,7 +9089,7 @@
         <v>19</v>
       </c>
       <c r="B642" s="51"/>
-      <c r="C642" s="31" t="s">
+      <c r="C642" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D642" s="51"/>
@@ -9096,7 +9102,7 @@
         <v>19</v>
       </c>
       <c r="B643" s="51"/>
-      <c r="C643" s="31" t="s">
+      <c r="C643" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D643" s="51"/>
@@ -9109,7 +9115,7 @@
         <v>19</v>
       </c>
       <c r="B644" s="51"/>
-      <c r="C644" s="31" t="s">
+      <c r="C644" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D644" s="51"/>
@@ -9122,7 +9128,7 @@
         <v>19</v>
       </c>
       <c r="B645" s="51"/>
-      <c r="C645" s="31" t="s">
+      <c r="C645" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D645" s="51"/>
@@ -9135,7 +9141,7 @@
         <v>19</v>
       </c>
       <c r="B646" s="51"/>
-      <c r="C646" s="31" t="s">
+      <c r="C646" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D646" s="51"/>
@@ -9148,7 +9154,7 @@
         <v>19</v>
       </c>
       <c r="B647" s="51"/>
-      <c r="C647" s="33" t="s">
+      <c r="C647" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D647" s="51"/>
@@ -9161,7 +9167,7 @@
         <v>19</v>
       </c>
       <c r="B648" s="51"/>
-      <c r="C648" s="33" t="s">
+      <c r="C648" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D648" s="51"/>
@@ -9174,7 +9180,7 @@
         <v>19</v>
       </c>
       <c r="B649" s="51"/>
-      <c r="C649" s="31" t="s">
+      <c r="C649" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D649" s="51"/>
@@ -9187,7 +9193,7 @@
         <v>19</v>
       </c>
       <c r="B650" s="51"/>
-      <c r="C650" s="31" t="s">
+      <c r="C650" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D650" s="51"/>
@@ -9200,7 +9206,7 @@
         <v>19</v>
       </c>
       <c r="B651" s="51"/>
-      <c r="C651" s="31" t="s">
+      <c r="C651" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D651" s="51"/>
@@ -9213,7 +9219,7 @@
         <v>19</v>
       </c>
       <c r="B652" s="51"/>
-      <c r="C652" s="31" t="s">
+      <c r="C652" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D652" s="51"/>
@@ -9226,7 +9232,7 @@
         <v>19</v>
       </c>
       <c r="B653" s="51"/>
-      <c r="C653" s="31" t="s">
+      <c r="C653" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D653" s="51"/>
@@ -9239,7 +9245,7 @@
         <v>19</v>
       </c>
       <c r="B654" s="51"/>
-      <c r="C654" s="31" t="s">
+      <c r="C654" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D654" s="51"/>
@@ -9252,7 +9258,7 @@
         <v>19</v>
       </c>
       <c r="B655" s="51"/>
-      <c r="C655" s="31" t="s">
+      <c r="C655" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D655" s="51"/>
@@ -9265,7 +9271,7 @@
         <v>19</v>
       </c>
       <c r="B656" s="51"/>
-      <c r="C656" s="31" t="s">
+      <c r="C656" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D656" s="51"/>
@@ -9278,7 +9284,7 @@
         <v>19</v>
       </c>
       <c r="B657" s="51"/>
-      <c r="C657" s="31" t="s">
+      <c r="C657" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D657" s="51"/>
@@ -9291,7 +9297,7 @@
         <v>19</v>
       </c>
       <c r="B658" s="51"/>
-      <c r="C658" s="33" t="s">
+      <c r="C658" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D658" s="51"/>
@@ -9304,7 +9310,7 @@
         <v>19</v>
       </c>
       <c r="B659" s="51"/>
-      <c r="C659" s="33" t="s">
+      <c r="C659" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D659" s="51"/>
@@ -9317,7 +9323,7 @@
         <v>19</v>
       </c>
       <c r="B660" s="51"/>
-      <c r="C660" s="31" t="s">
+      <c r="C660" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D660" s="51"/>
@@ -9328,7 +9334,7 @@
     <row r="661" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A661" s="34"/>
       <c r="B661" s="51"/>
-      <c r="C661" s="31" t="s">
+      <c r="C661" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D661" s="51"/>
@@ -9341,7 +9347,7 @@
         <v>19</v>
       </c>
       <c r="B662" s="51"/>
-      <c r="C662" s="31" t="s">
+      <c r="C662" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D662" s="51"/>
@@ -9354,7 +9360,7 @@
         <v>19</v>
       </c>
       <c r="B663" s="51"/>
-      <c r="C663" s="31" t="s">
+      <c r="C663" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D663" s="51"/>
@@ -9367,7 +9373,7 @@
         <v>19</v>
       </c>
       <c r="B664" s="51"/>
-      <c r="C664" s="31" t="s">
+      <c r="C664" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D664" s="51"/>
@@ -9380,7 +9386,7 @@
         <v>19</v>
       </c>
       <c r="B665" s="51"/>
-      <c r="C665" s="31" t="s">
+      <c r="C665" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D665" s="51"/>
@@ -9393,7 +9399,7 @@
         <v>19</v>
       </c>
       <c r="B666" s="51"/>
-      <c r="C666" s="31" t="s">
+      <c r="C666" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D666" s="51"/>
@@ -9406,7 +9412,7 @@
         <v>19</v>
       </c>
       <c r="B667" s="51"/>
-      <c r="C667" s="31" t="s">
+      <c r="C667" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D667" s="51"/>
@@ -9419,7 +9425,7 @@
         <v>19</v>
       </c>
       <c r="B668" s="51"/>
-      <c r="C668" s="31" t="s">
+      <c r="C668" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D668" s="51"/>
@@ -9432,7 +9438,7 @@
         <v>19</v>
       </c>
       <c r="B669" s="51"/>
-      <c r="C669" s="33" t="s">
+      <c r="C669" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D669" s="51"/>
@@ -9445,7 +9451,7 @@
         <v>19</v>
       </c>
       <c r="B670" s="51"/>
-      <c r="C670" s="33" t="s">
+      <c r="C670" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D670" s="51"/>
@@ -9458,7 +9464,7 @@
         <v>19</v>
       </c>
       <c r="B671" s="51"/>
-      <c r="C671" s="31" t="s">
+      <c r="C671" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D671" s="51"/>
@@ -9471,7 +9477,7 @@
         <v>19</v>
       </c>
       <c r="B672" s="51"/>
-      <c r="C672" s="31" t="s">
+      <c r="C672" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D672" s="51"/>
@@ -9484,7 +9490,7 @@
         <v>19</v>
       </c>
       <c r="B673" s="51"/>
-      <c r="C673" s="31" t="s">
+      <c r="C673" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D673" s="51"/>
@@ -9497,7 +9503,7 @@
         <v>19</v>
       </c>
       <c r="B674" s="51"/>
-      <c r="C674" s="31" t="s">
+      <c r="C674" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D674" s="51"/>
@@ -9510,7 +9516,7 @@
         <v>19</v>
       </c>
       <c r="B675" s="51"/>
-      <c r="C675" s="31" t="s">
+      <c r="C675" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D675" s="51"/>
@@ -9523,7 +9529,7 @@
         <v>19</v>
       </c>
       <c r="B676" s="51"/>
-      <c r="C676" s="31" t="s">
+      <c r="C676" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D676" s="51"/>
@@ -9536,7 +9542,7 @@
         <v>19</v>
       </c>
       <c r="B677" s="51"/>
-      <c r="C677" s="31" t="s">
+      <c r="C677" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D677" s="51"/>
@@ -9549,7 +9555,7 @@
         <v>19</v>
       </c>
       <c r="B678" s="51"/>
-      <c r="C678" s="31" t="s">
+      <c r="C678" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D678" s="51"/>
@@ -9562,7 +9568,7 @@
         <v>19</v>
       </c>
       <c r="B679" s="51"/>
-      <c r="C679" s="31" t="s">
+      <c r="C679" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D679" s="51"/>
@@ -9575,7 +9581,7 @@
         <v>19</v>
       </c>
       <c r="B680" s="51"/>
-      <c r="C680" s="33" t="s">
+      <c r="C680" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D680" s="51"/>
@@ -9588,7 +9594,7 @@
         <v>19</v>
       </c>
       <c r="B681" s="51"/>
-      <c r="C681" s="33" t="s">
+      <c r="C681" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D681" s="51"/>
@@ -9601,7 +9607,7 @@
         <v>19</v>
       </c>
       <c r="B682" s="51"/>
-      <c r="C682" s="31" t="s">
+      <c r="C682" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D682" s="51"/>
@@ -9614,7 +9620,7 @@
         <v>19</v>
       </c>
       <c r="B683" s="51"/>
-      <c r="C683" s="31" t="s">
+      <c r="C683" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D683" s="51"/>
@@ -9627,7 +9633,7 @@
         <v>19</v>
       </c>
       <c r="B684" s="51"/>
-      <c r="C684" s="31" t="s">
+      <c r="C684" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D684" s="51"/>
@@ -9640,7 +9646,7 @@
         <v>19</v>
       </c>
       <c r="B685" s="51"/>
-      <c r="C685" s="31" t="s">
+      <c r="C685" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D685" s="51"/>
@@ -9653,7 +9659,7 @@
         <v>19</v>
       </c>
       <c r="B686" s="51"/>
-      <c r="C686" s="31" t="s">
+      <c r="C686" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D686" s="51"/>
@@ -9666,7 +9672,7 @@
         <v>19</v>
       </c>
       <c r="B687" s="51"/>
-      <c r="C687" s="31" t="s">
+      <c r="C687" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D687" s="51"/>
@@ -9679,7 +9685,7 @@
         <v>19</v>
       </c>
       <c r="B688" s="51"/>
-      <c r="C688" s="31" t="s">
+      <c r="C688" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D688" s="51"/>
@@ -9692,7 +9698,7 @@
         <v>19</v>
       </c>
       <c r="B689" s="51"/>
-      <c r="C689" s="31" t="s">
+      <c r="C689" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D689" s="51"/>
@@ -9705,7 +9711,7 @@
         <v>19</v>
       </c>
       <c r="B690" s="51"/>
-      <c r="C690" s="31" t="s">
+      <c r="C690" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D690" s="51"/>
@@ -9718,7 +9724,7 @@
         <v>19</v>
       </c>
       <c r="B691" s="51"/>
-      <c r="C691" s="33" t="s">
+      <c r="C691" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D691" s="51"/>
@@ -9729,7 +9735,7 @@
     <row r="692" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A692" s="34"/>
       <c r="B692" s="51"/>
-      <c r="C692" s="33" t="s">
+      <c r="C692" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D692" s="51"/>
@@ -9742,7 +9748,7 @@
         <v>19</v>
       </c>
       <c r="B693" s="51"/>
-      <c r="C693" s="31" t="s">
+      <c r="C693" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D693" s="51"/>
@@ -9755,7 +9761,7 @@
         <v>19</v>
       </c>
       <c r="B694" s="51"/>
-      <c r="C694" s="31" t="s">
+      <c r="C694" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D694" s="51"/>
@@ -9768,7 +9774,7 @@
         <v>19</v>
       </c>
       <c r="B695" s="51"/>
-      <c r="C695" s="31" t="s">
+      <c r="C695" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D695" s="51"/>
@@ -9781,7 +9787,7 @@
         <v>19</v>
       </c>
       <c r="B696" s="51"/>
-      <c r="C696" s="31" t="s">
+      <c r="C696" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D696" s="51"/>
@@ -9794,7 +9800,7 @@
         <v>19</v>
       </c>
       <c r="B697" s="51"/>
-      <c r="C697" s="31" t="s">
+      <c r="C697" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D697" s="51"/>
@@ -9807,7 +9813,7 @@
         <v>19</v>
       </c>
       <c r="B698" s="51"/>
-      <c r="C698" s="31" t="s">
+      <c r="C698" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D698" s="51"/>
@@ -9820,7 +9826,7 @@
         <v>19</v>
       </c>
       <c r="B699" s="51"/>
-      <c r="C699" s="31" t="s">
+      <c r="C699" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D699" s="51"/>
@@ -9833,7 +9839,7 @@
         <v>19</v>
       </c>
       <c r="B700" s="51"/>
-      <c r="C700" s="31" t="s">
+      <c r="C700" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D700" s="51"/>
@@ -9846,7 +9852,7 @@
         <v>19</v>
       </c>
       <c r="B701" s="51"/>
-      <c r="C701" s="31" t="s">
+      <c r="C701" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D701" s="51"/>
@@ -9859,7 +9865,7 @@
         <v>19</v>
       </c>
       <c r="B702" s="51"/>
-      <c r="C702" s="33" t="s">
+      <c r="C702" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D702" s="51"/>
@@ -9872,7 +9878,7 @@
         <v>19</v>
       </c>
       <c r="B703" s="51"/>
-      <c r="C703" s="33" t="s">
+      <c r="C703" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D703" s="51"/>
@@ -9885,7 +9891,7 @@
         <v>19</v>
       </c>
       <c r="B704" s="51"/>
-      <c r="C704" s="31" t="s">
+      <c r="C704" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D704" s="51"/>
@@ -9898,7 +9904,7 @@
         <v>19</v>
       </c>
       <c r="B705" s="51"/>
-      <c r="C705" s="33"/>
+      <c r="C705" s="51"/>
       <c r="D705" s="51"/>
       <c r="E705" s="34"/>
       <c r="F705" s="34"/>
@@ -9909,7 +9915,7 @@
         <v>19</v>
       </c>
       <c r="B706" s="51"/>
-      <c r="C706" s="33" t="s">
+      <c r="C706" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D706" s="51"/>
@@ -9922,7 +9928,7 @@
         <v>19</v>
       </c>
       <c r="B707" s="51"/>
-      <c r="C707" s="31" t="s">
+      <c r="C707" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D707" s="51"/>
@@ -9935,7 +9941,7 @@
         <v>19</v>
       </c>
       <c r="B708" s="51"/>
-      <c r="C708" s="31" t="s">
+      <c r="C708" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D708" s="51"/>
@@ -9948,7 +9954,7 @@
         <v>19</v>
       </c>
       <c r="B709" s="51"/>
-      <c r="C709" s="31" t="s">
+      <c r="C709" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D709" s="51"/>
@@ -9961,7 +9967,7 @@
         <v>19</v>
       </c>
       <c r="B710" s="51"/>
-      <c r="C710" s="31" t="s">
+      <c r="C710" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D710" s="51"/>
@@ -9974,7 +9980,7 @@
         <v>19</v>
       </c>
       <c r="B711" s="51"/>
-      <c r="C711" s="31" t="s">
+      <c r="C711" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D711" s="51"/>
@@ -9987,7 +9993,7 @@
         <v>19</v>
       </c>
       <c r="B712" s="51"/>
-      <c r="C712" s="31" t="s">
+      <c r="C712" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D712" s="51"/>
@@ -10000,7 +10006,7 @@
         <v>19</v>
       </c>
       <c r="B713" s="51"/>
-      <c r="C713" s="31" t="s">
+      <c r="C713" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D713" s="51"/>
@@ -10013,7 +10019,7 @@
         <v>19</v>
       </c>
       <c r="B714" s="51"/>
-      <c r="C714" s="31" t="s">
+      <c r="C714" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D714" s="51"/>
@@ -10026,7 +10032,7 @@
         <v>19</v>
       </c>
       <c r="B715" s="51"/>
-      <c r="C715" s="31" t="s">
+      <c r="C715" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D715" s="51"/>
@@ -10039,7 +10045,7 @@
         <v>19</v>
       </c>
       <c r="B716" s="51"/>
-      <c r="C716" s="33" t="s">
+      <c r="C716" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D716" s="51"/>
@@ -10052,7 +10058,7 @@
         <v>19</v>
       </c>
       <c r="B717" s="51"/>
-      <c r="C717" s="33" t="s">
+      <c r="C717" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D717" s="51"/>
@@ -10065,7 +10071,7 @@
         <v>19</v>
       </c>
       <c r="B718" s="51"/>
-      <c r="C718" s="31" t="s">
+      <c r="C718" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D718" s="51"/>
@@ -10078,7 +10084,7 @@
         <v>19</v>
       </c>
       <c r="B719" s="51"/>
-      <c r="C719" s="31" t="s">
+      <c r="C719" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D719" s="51"/>
@@ -10091,7 +10097,7 @@
         <v>19</v>
       </c>
       <c r="B720" s="51"/>
-      <c r="C720" s="31" t="s">
+      <c r="C720" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D720" s="51"/>
@@ -10104,7 +10110,7 @@
         <v>19</v>
       </c>
       <c r="B721" s="51"/>
-      <c r="C721" s="31" t="s">
+      <c r="C721" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D721" s="51"/>
@@ -10117,7 +10123,7 @@
         <v>19</v>
       </c>
       <c r="B722" s="51"/>
-      <c r="C722" s="31" t="s">
+      <c r="C722" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D722" s="51"/>
@@ -10128,7 +10134,7 @@
     <row r="723" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A723" s="34"/>
       <c r="B723" s="51"/>
-      <c r="C723" s="31" t="s">
+      <c r="C723" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D723" s="51"/>
@@ -10141,7 +10147,7 @@
         <v>19</v>
       </c>
       <c r="B724" s="51"/>
-      <c r="C724" s="31" t="s">
+      <c r="C724" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D724" s="51"/>
@@ -10154,7 +10160,7 @@
         <v>19</v>
       </c>
       <c r="B725" s="51"/>
-      <c r="C725" s="31" t="s">
+      <c r="C725" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D725" s="51"/>
@@ -10167,7 +10173,7 @@
         <v>19</v>
       </c>
       <c r="B726" s="51"/>
-      <c r="C726" s="31" t="s">
+      <c r="C726" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D726" s="51"/>
@@ -10180,7 +10186,7 @@
         <v>19</v>
       </c>
       <c r="B727" s="51"/>
-      <c r="C727" s="33" t="s">
+      <c r="C727" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D727" s="51"/>
@@ -10193,7 +10199,7 @@
         <v>19</v>
       </c>
       <c r="B728" s="51"/>
-      <c r="C728" s="33" t="s">
+      <c r="C728" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D728" s="51"/>
@@ -10206,7 +10212,7 @@
         <v>19</v>
       </c>
       <c r="B729" s="51"/>
-      <c r="C729" s="31" t="s">
+      <c r="C729" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D729" s="51"/>
@@ -10219,7 +10225,7 @@
         <v>19</v>
       </c>
       <c r="B730" s="51"/>
-      <c r="C730" s="31" t="s">
+      <c r="C730" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D730" s="51"/>
@@ -10232,7 +10238,7 @@
         <v>19</v>
       </c>
       <c r="B731" s="51"/>
-      <c r="C731" s="31" t="s">
+      <c r="C731" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D731" s="51"/>
@@ -10245,7 +10251,7 @@
         <v>19</v>
       </c>
       <c r="B732" s="51"/>
-      <c r="C732" s="31" t="s">
+      <c r="C732" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D732" s="51"/>
@@ -10258,7 +10264,7 @@
         <v>19</v>
       </c>
       <c r="B733" s="51"/>
-      <c r="C733" s="31" t="s">
+      <c r="C733" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D733" s="51"/>
@@ -10271,7 +10277,7 @@
         <v>19</v>
       </c>
       <c r="B734" s="51"/>
-      <c r="C734" s="31" t="s">
+      <c r="C734" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D734" s="51"/>
@@ -10284,7 +10290,7 @@
         <v>19</v>
       </c>
       <c r="B735" s="51"/>
-      <c r="C735" s="31" t="s">
+      <c r="C735" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D735" s="51"/>
@@ -10297,7 +10303,7 @@
         <v>19</v>
       </c>
       <c r="B736" s="51"/>
-      <c r="C736" s="31" t="s">
+      <c r="C736" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D736" s="51"/>
@@ -10310,7 +10316,7 @@
         <v>19</v>
       </c>
       <c r="B737" s="51"/>
-      <c r="C737" s="31" t="s">
+      <c r="C737" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D737" s="51"/>
@@ -10323,7 +10329,7 @@
         <v>19</v>
       </c>
       <c r="B738" s="51"/>
-      <c r="C738" s="33" t="s">
+      <c r="C738" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D738" s="51"/>
@@ -10336,7 +10342,7 @@
         <v>19</v>
       </c>
       <c r="B739" s="51"/>
-      <c r="C739" s="33" t="s">
+      <c r="C739" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D739" s="51"/>
@@ -10349,7 +10355,7 @@
         <v>19</v>
       </c>
       <c r="B740" s="51"/>
-      <c r="C740" s="31" t="s">
+      <c r="C740" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D740" s="51"/>
@@ -10362,7 +10368,7 @@
         <v>19</v>
       </c>
       <c r="B741" s="51"/>
-      <c r="C741" s="31" t="s">
+      <c r="C741" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D741" s="51"/>
@@ -10375,7 +10381,7 @@
         <v>19</v>
       </c>
       <c r="B742" s="51"/>
-      <c r="C742" s="31" t="s">
+      <c r="C742" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D742" s="51"/>
@@ -10388,7 +10394,7 @@
         <v>19</v>
       </c>
       <c r="B743" s="51"/>
-      <c r="C743" s="31" t="s">
+      <c r="C743" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D743" s="51"/>
@@ -10401,7 +10407,7 @@
         <v>19</v>
       </c>
       <c r="B744" s="51"/>
-      <c r="C744" s="31" t="s">
+      <c r="C744" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D744" s="51"/>
@@ -10414,7 +10420,7 @@
         <v>19</v>
       </c>
       <c r="B745" s="51"/>
-      <c r="C745" s="31" t="s">
+      <c r="C745" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D745" s="51"/>
@@ -10427,7 +10433,7 @@
         <v>19</v>
       </c>
       <c r="B746" s="51"/>
-      <c r="C746" s="31" t="s">
+      <c r="C746" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D746" s="51"/>
@@ -10440,7 +10446,7 @@
         <v>19</v>
       </c>
       <c r="B747" s="51"/>
-      <c r="C747" s="31" t="s">
+      <c r="C747" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D747" s="51"/>
@@ -10453,7 +10459,7 @@
         <v>19</v>
       </c>
       <c r="B748" s="51"/>
-      <c r="C748" s="31" t="s">
+      <c r="C748" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D748" s="51"/>
@@ -10466,7 +10472,7 @@
         <v>19</v>
       </c>
       <c r="B749" s="51"/>
-      <c r="C749" s="33" t="s">
+      <c r="C749" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D749" s="51"/>
@@ -10479,7 +10485,7 @@
         <v>19</v>
       </c>
       <c r="B750" s="51"/>
-      <c r="C750" s="33" t="s">
+      <c r="C750" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D750" s="51"/>
@@ -10492,7 +10498,7 @@
         <v>19</v>
       </c>
       <c r="B751" s="51"/>
-      <c r="C751" s="31" t="s">
+      <c r="C751" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D751" s="51"/>
@@ -10505,7 +10511,7 @@
         <v>19</v>
       </c>
       <c r="B752" s="51"/>
-      <c r="C752" s="31" t="s">
+      <c r="C752" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D752" s="51"/>
@@ -10518,7 +10524,7 @@
         <v>19</v>
       </c>
       <c r="B753" s="51"/>
-      <c r="C753" s="31" t="s">
+      <c r="C753" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D753" s="51"/>
@@ -10531,7 +10537,7 @@
         <v>19</v>
       </c>
       <c r="B754" s="51"/>
-      <c r="C754" s="31" t="s">
+      <c r="C754" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D754" s="51"/>
@@ -10544,7 +10550,7 @@
         <v>19</v>
       </c>
       <c r="B755" s="51"/>
-      <c r="C755" s="31" t="s">
+      <c r="C755" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D755" s="51"/>
@@ -10557,7 +10563,7 @@
         <v>19</v>
       </c>
       <c r="B756" s="51"/>
-      <c r="C756" s="31" t="s">
+      <c r="C756" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D756" s="51"/>
@@ -10570,7 +10576,7 @@
         <v>19</v>
       </c>
       <c r="B757" s="51"/>
-      <c r="C757" s="31" t="s">
+      <c r="C757" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D757" s="51"/>
@@ -10583,7 +10589,7 @@
         <v>19</v>
       </c>
       <c r="B758" s="51"/>
-      <c r="C758" s="31" t="s">
+      <c r="C758" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D758" s="51"/>
@@ -10596,7 +10602,7 @@
         <v>19</v>
       </c>
       <c r="B759" s="51"/>
-      <c r="C759" s="31" t="s">
+      <c r="C759" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D759" s="51"/>
@@ -10609,7 +10615,7 @@
         <v>19</v>
       </c>
       <c r="B760" s="51"/>
-      <c r="C760" s="33" t="s">
+      <c r="C760" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D760" s="51"/>
@@ -10622,7 +10628,7 @@
         <v>19</v>
       </c>
       <c r="B761" s="51"/>
-      <c r="C761" s="33" t="s">
+      <c r="C761" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D761" s="51"/>
@@ -10635,7 +10641,7 @@
         <v>19</v>
       </c>
       <c r="B762" s="51"/>
-      <c r="C762" s="31" t="s">
+      <c r="C762" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D762" s="51"/>
@@ -10648,7 +10654,7 @@
         <v>19</v>
       </c>
       <c r="B763" s="51"/>
-      <c r="C763" s="31" t="s">
+      <c r="C763" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D763" s="51"/>
@@ -10661,7 +10667,7 @@
         <v>19</v>
       </c>
       <c r="B764" s="51"/>
-      <c r="C764" s="31" t="s">
+      <c r="C764" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D764" s="51"/>
@@ -10674,7 +10680,7 @@
         <v>19</v>
       </c>
       <c r="B765" s="51"/>
-      <c r="C765" s="31" t="s">
+      <c r="C765" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D765" s="51"/>
@@ -10687,7 +10693,7 @@
         <v>19</v>
       </c>
       <c r="B766" s="51"/>
-      <c r="C766" s="31" t="s">
+      <c r="C766" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D766" s="51"/>
@@ -10700,7 +10706,7 @@
         <v>19</v>
       </c>
       <c r="B767" s="51"/>
-      <c r="C767" s="31" t="s">
+      <c r="C767" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D767" s="51"/>
@@ -10713,7 +10719,7 @@
         <v>19</v>
       </c>
       <c r="B768" s="51"/>
-      <c r="C768" s="31" t="s">
+      <c r="C768" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D768" s="51"/>
@@ -10726,7 +10732,7 @@
         <v>19</v>
       </c>
       <c r="B769" s="51"/>
-      <c r="C769" s="31" t="s">
+      <c r="C769" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D769" s="51"/>
@@ -10739,7 +10745,7 @@
         <v>19</v>
       </c>
       <c r="B770" s="51"/>
-      <c r="C770" s="31" t="s">
+      <c r="C770" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D770" s="51"/>
@@ -10752,7 +10758,7 @@
         <v>19</v>
       </c>
       <c r="B771" s="51"/>
-      <c r="C771" s="33" t="s">
+      <c r="C771" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D771" s="51"/>
@@ -10765,7 +10771,7 @@
         <v>19</v>
       </c>
       <c r="B772" s="51"/>
-      <c r="C772" s="33" t="s">
+      <c r="C772" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D772" s="51"/>
@@ -10778,7 +10784,7 @@
         <v>19</v>
       </c>
       <c r="B773" s="51"/>
-      <c r="C773" s="31" t="s">
+      <c r="C773" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D773" s="51"/>
@@ -10791,7 +10797,7 @@
         <v>19</v>
       </c>
       <c r="B774" s="51"/>
-      <c r="C774" s="31" t="s">
+      <c r="C774" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D774" s="51"/>
@@ -10804,7 +10810,7 @@
         <v>19</v>
       </c>
       <c r="B775" s="51"/>
-      <c r="C775" s="31" t="s">
+      <c r="C775" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D775" s="51"/>
@@ -10817,7 +10823,7 @@
         <v>19</v>
       </c>
       <c r="B776" s="51"/>
-      <c r="C776" s="31" t="s">
+      <c r="C776" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D776" s="51"/>
@@ -10830,7 +10836,7 @@
         <v>19</v>
       </c>
       <c r="B777" s="51"/>
-      <c r="C777" s="31" t="s">
+      <c r="C777" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D777" s="51"/>
@@ -10843,7 +10849,7 @@
         <v>19</v>
       </c>
       <c r="B778" s="51"/>
-      <c r="C778" s="31" t="s">
+      <c r="C778" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D778" s="51"/>
@@ -10856,7 +10862,7 @@
         <v>19</v>
       </c>
       <c r="B779" s="51"/>
-      <c r="C779" s="31" t="s">
+      <c r="C779" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D779" s="51"/>
@@ -10869,7 +10875,7 @@
         <v>19</v>
       </c>
       <c r="B780" s="51"/>
-      <c r="C780" s="31" t="s">
+      <c r="C780" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D780" s="51"/>
@@ -10882,7 +10888,7 @@
         <v>19</v>
       </c>
       <c r="B781" s="51"/>
-      <c r="C781" s="31" t="s">
+      <c r="C781" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D781" s="51"/>
@@ -10895,7 +10901,7 @@
         <v>19</v>
       </c>
       <c r="B782" s="51"/>
-      <c r="C782" s="33" t="s">
+      <c r="C782" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D782" s="51"/>
@@ -10906,7 +10912,7 @@
     <row r="783" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A783" s="34"/>
       <c r="B783" s="51"/>
-      <c r="C783" s="33" t="s">
+      <c r="C783" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D783" s="51"/>
@@ -10919,7 +10925,7 @@
         <v>19</v>
       </c>
       <c r="B784" s="51"/>
-      <c r="C784" s="31" t="s">
+      <c r="C784" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D784" s="51"/>
@@ -10932,7 +10938,7 @@
         <v>19</v>
       </c>
       <c r="B785" s="51"/>
-      <c r="C785" s="31" t="s">
+      <c r="C785" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D785" s="51"/>
@@ -10945,7 +10951,7 @@
         <v>19</v>
       </c>
       <c r="B786" s="51"/>
-      <c r="C786" s="31" t="s">
+      <c r="C786" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D786" s="51"/>
@@ -10958,7 +10964,7 @@
         <v>19</v>
       </c>
       <c r="B787" s="51"/>
-      <c r="C787" s="31" t="s">
+      <c r="C787" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D787" s="51"/>
@@ -10971,7 +10977,7 @@
         <v>19</v>
       </c>
       <c r="B788" s="51"/>
-      <c r="C788" s="31" t="s">
+      <c r="C788" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D788" s="51"/>
@@ -10984,7 +10990,7 @@
         <v>19</v>
       </c>
       <c r="B789" s="51"/>
-      <c r="C789" s="31" t="s">
+      <c r="C789" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D789" s="51"/>
@@ -10997,7 +11003,7 @@
         <v>19</v>
       </c>
       <c r="B790" s="51"/>
-      <c r="C790" s="31" t="s">
+      <c r="C790" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D790" s="51"/>
@@ -11010,7 +11016,7 @@
         <v>19</v>
       </c>
       <c r="B791" s="51"/>
-      <c r="C791" s="31" t="s">
+      <c r="C791" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D791" s="51"/>
@@ -11023,7 +11029,7 @@
         <v>19</v>
       </c>
       <c r="B792" s="51"/>
-      <c r="C792" s="31" t="s">
+      <c r="C792" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D792" s="51"/>
@@ -11036,7 +11042,7 @@
         <v>19</v>
       </c>
       <c r="B793" s="51"/>
-      <c r="C793" s="33" t="s">
+      <c r="C793" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D793" s="51"/>
@@ -11049,7 +11055,7 @@
         <v>19</v>
       </c>
       <c r="B794" s="51"/>
-      <c r="C794" s="33" t="s">
+      <c r="C794" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D794" s="51"/>
@@ -11062,7 +11068,7 @@
         <v>19</v>
       </c>
       <c r="B795" s="51"/>
-      <c r="C795" s="31" t="s">
+      <c r="C795" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D795" s="51"/>
@@ -11075,7 +11081,7 @@
         <v>19</v>
       </c>
       <c r="B796" s="51"/>
-      <c r="C796" s="31" t="s">
+      <c r="C796" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D796" s="51"/>
@@ -11088,7 +11094,7 @@
         <v>19</v>
       </c>
       <c r="B797" s="51"/>
-      <c r="C797" s="31" t="s">
+      <c r="C797" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D797" s="51"/>
@@ -11101,7 +11107,7 @@
         <v>19</v>
       </c>
       <c r="B798" s="51"/>
-      <c r="C798" s="31" t="s">
+      <c r="C798" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D798" s="51"/>
@@ -11114,7 +11120,7 @@
         <v>19</v>
       </c>
       <c r="B799" s="51"/>
-      <c r="C799" s="31" t="s">
+      <c r="C799" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D799" s="51"/>
@@ -11127,7 +11133,7 @@
         <v>19</v>
       </c>
       <c r="B800" s="51"/>
-      <c r="C800" s="31" t="s">
+      <c r="C800" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D800" s="51"/>
@@ -11140,7 +11146,7 @@
         <v>19</v>
       </c>
       <c r="B801" s="51"/>
-      <c r="C801" s="31" t="s">
+      <c r="C801" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D801" s="51"/>
@@ -11153,7 +11159,7 @@
         <v>19</v>
       </c>
       <c r="B802" s="51"/>
-      <c r="C802" s="31" t="s">
+      <c r="C802" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D802" s="51"/>
@@ -11166,7 +11172,7 @@
         <v>19</v>
       </c>
       <c r="B803" s="51"/>
-      <c r="C803" s="31" t="s">
+      <c r="C803" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D803" s="51"/>
@@ -11179,7 +11185,7 @@
         <v>19</v>
       </c>
       <c r="B804" s="51"/>
-      <c r="C804" s="33" t="s">
+      <c r="C804" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D804" s="51"/>
@@ -11192,7 +11198,7 @@
         <v>19</v>
       </c>
       <c r="B805" s="51"/>
-      <c r="C805" s="33" t="s">
+      <c r="C805" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D805" s="51"/>
@@ -11205,7 +11211,7 @@
         <v>19</v>
       </c>
       <c r="B806" s="51"/>
-      <c r="C806" s="31" t="s">
+      <c r="C806" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D806" s="51"/>
@@ -11218,7 +11224,7 @@
         <v>19</v>
       </c>
       <c r="B807" s="51"/>
-      <c r="C807" s="31" t="s">
+      <c r="C807" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D807" s="51"/>
@@ -11231,7 +11237,7 @@
         <v>19</v>
       </c>
       <c r="B808" s="51"/>
-      <c r="C808" s="31" t="s">
+      <c r="C808" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D808" s="51"/>
@@ -11244,7 +11250,7 @@
         <v>19</v>
       </c>
       <c r="B809" s="51"/>
-      <c r="C809" s="31" t="s">
+      <c r="C809" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D809" s="51"/>
@@ -11257,7 +11263,7 @@
         <v>19</v>
       </c>
       <c r="B810" s="51"/>
-      <c r="C810" s="31" t="s">
+      <c r="C810" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D810" s="51"/>
@@ -11270,7 +11276,7 @@
         <v>19</v>
       </c>
       <c r="B811" s="51"/>
-      <c r="C811" s="31" t="s">
+      <c r="C811" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D811" s="51"/>
@@ -11283,7 +11289,7 @@
         <v>19</v>
       </c>
       <c r="B812" s="51"/>
-      <c r="C812" s="31" t="s">
+      <c r="C812" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D812" s="51"/>
@@ -11296,7 +11302,7 @@
         <v>19</v>
       </c>
       <c r="B813" s="51"/>
-      <c r="C813" s="31" t="s">
+      <c r="C813" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D813" s="51"/>
@@ -11307,7 +11313,7 @@
     <row r="814" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A814" s="34"/>
       <c r="B814" s="51"/>
-      <c r="C814" s="31" t="s">
+      <c r="C814" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D814" s="51"/>
@@ -11320,7 +11326,7 @@
         <v>19</v>
       </c>
       <c r="B815" s="51"/>
-      <c r="C815" s="33" t="s">
+      <c r="C815" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D815" s="51"/>
@@ -11333,7 +11339,7 @@
         <v>19</v>
       </c>
       <c r="B816" s="51"/>
-      <c r="C816" s="33" t="s">
+      <c r="C816" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D816" s="51"/>
@@ -11346,7 +11352,7 @@
         <v>19</v>
       </c>
       <c r="B817" s="51"/>
-      <c r="C817" s="31" t="s">
+      <c r="C817" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D817" s="51"/>
@@ -11359,7 +11365,7 @@
         <v>19</v>
       </c>
       <c r="B818" s="51"/>
-      <c r="C818" s="31" t="s">
+      <c r="C818" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D818" s="51"/>
@@ -11372,7 +11378,7 @@
         <v>19</v>
       </c>
       <c r="B819" s="51"/>
-      <c r="C819" s="31" t="s">
+      <c r="C819" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D819" s="51"/>
@@ -11385,7 +11391,7 @@
         <v>19</v>
       </c>
       <c r="B820" s="51"/>
-      <c r="C820" s="31" t="s">
+      <c r="C820" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D820" s="51"/>
@@ -11398,7 +11404,7 @@
         <v>19</v>
       </c>
       <c r="B821" s="51"/>
-      <c r="C821" s="31" t="s">
+      <c r="C821" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D821" s="51"/>
@@ -11411,7 +11417,7 @@
         <v>19</v>
       </c>
       <c r="B822" s="51"/>
-      <c r="C822" s="31" t="s">
+      <c r="C822" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D822" s="51"/>
@@ -11424,7 +11430,7 @@
         <v>19</v>
       </c>
       <c r="B823" s="51"/>
-      <c r="C823" s="31" t="s">
+      <c r="C823" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D823" s="51"/>
@@ -11437,7 +11443,7 @@
         <v>19</v>
       </c>
       <c r="B824" s="51"/>
-      <c r="C824" s="31" t="s">
+      <c r="C824" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D824" s="51"/>
@@ -11450,7 +11456,7 @@
         <v>19</v>
       </c>
       <c r="B825" s="51"/>
-      <c r="C825" s="31" t="s">
+      <c r="C825" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D825" s="51"/>
@@ -11463,7 +11469,7 @@
         <v>19</v>
       </c>
       <c r="B826" s="51"/>
-      <c r="C826" s="33" t="s">
+      <c r="C826" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D826" s="51"/>
@@ -11476,7 +11482,7 @@
         <v>19</v>
       </c>
       <c r="B827" s="51"/>
-      <c r="C827" s="33" t="s">
+      <c r="C827" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D827" s="51"/>
@@ -11489,7 +11495,7 @@
         <v>19</v>
       </c>
       <c r="B828" s="51"/>
-      <c r="C828" s="31" t="s">
+      <c r="C828" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D828" s="51"/>
@@ -11502,7 +11508,7 @@
         <v>19</v>
       </c>
       <c r="B829" s="51"/>
-      <c r="C829" s="31" t="s">
+      <c r="C829" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D829" s="51"/>
@@ -11515,7 +11521,7 @@
         <v>19</v>
       </c>
       <c r="B830" s="51"/>
-      <c r="C830" s="31" t="s">
+      <c r="C830" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D830" s="51"/>
@@ -11528,7 +11534,7 @@
         <v>19</v>
       </c>
       <c r="B831" s="51"/>
-      <c r="C831" s="31" t="s">
+      <c r="C831" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D831" s="51"/>
@@ -11541,7 +11547,7 @@
         <v>19</v>
       </c>
       <c r="B832" s="51"/>
-      <c r="C832" s="31" t="s">
+      <c r="C832" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D832" s="51"/>
@@ -11554,7 +11560,7 @@
         <v>19</v>
       </c>
       <c r="B833" s="51"/>
-      <c r="C833" s="31" t="s">
+      <c r="C833" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D833" s="51"/>
@@ -11567,7 +11573,7 @@
         <v>19</v>
       </c>
       <c r="B834" s="51"/>
-      <c r="C834" s="31" t="s">
+      <c r="C834" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D834" s="51"/>
@@ -11580,7 +11586,7 @@
         <v>19</v>
       </c>
       <c r="B835" s="51"/>
-      <c r="C835" s="31" t="s">
+      <c r="C835" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D835" s="51"/>
@@ -11593,7 +11599,7 @@
         <v>19</v>
       </c>
       <c r="B836" s="51"/>
-      <c r="C836" s="31" t="s">
+      <c r="C836" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D836" s="51"/>
@@ -11606,7 +11612,7 @@
         <v>19</v>
       </c>
       <c r="B837" s="51"/>
-      <c r="C837" s="33" t="s">
+      <c r="C837" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D837" s="51"/>
@@ -11619,7 +11625,7 @@
         <v>19</v>
       </c>
       <c r="B838" s="51"/>
-      <c r="C838" s="33" t="s">
+      <c r="C838" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D838" s="51"/>
@@ -11632,7 +11638,7 @@
         <v>19</v>
       </c>
       <c r="B839" s="51"/>
-      <c r="C839" s="31" t="s">
+      <c r="C839" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D839" s="51"/>
@@ -11645,7 +11651,7 @@
         <v>19</v>
       </c>
       <c r="B840" s="51"/>
-      <c r="C840" s="31" t="s">
+      <c r="C840" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D840" s="51"/>
@@ -11658,7 +11664,7 @@
         <v>19</v>
       </c>
       <c r="B841" s="51"/>
-      <c r="C841" s="31" t="s">
+      <c r="C841" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D841" s="51"/>
@@ -11671,7 +11677,7 @@
         <v>19</v>
       </c>
       <c r="B842" s="51"/>
-      <c r="C842" s="31" t="s">
+      <c r="C842" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D842" s="51"/>
@@ -11684,7 +11690,7 @@
         <v>19</v>
       </c>
       <c r="B843" s="51"/>
-      <c r="C843" s="31" t="s">
+      <c r="C843" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D843" s="51"/>
@@ -11697,7 +11703,7 @@
         <v>19</v>
       </c>
       <c r="B844" s="51"/>
-      <c r="C844" s="31" t="s">
+      <c r="C844" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D844" s="51"/>
@@ -11708,7 +11714,7 @@
     <row r="845" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A845" s="34"/>
       <c r="B845" s="51"/>
-      <c r="C845" s="31" t="s">
+      <c r="C845" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D845" s="51"/>
@@ -11721,7 +11727,7 @@
         <v>19</v>
       </c>
       <c r="B846" s="51"/>
-      <c r="C846" s="31" t="s">
+      <c r="C846" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D846" s="51"/>
@@ -11734,7 +11740,7 @@
         <v>19</v>
       </c>
       <c r="B847" s="51"/>
-      <c r="C847" s="31" t="s">
+      <c r="C847" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D847" s="51"/>
@@ -11747,7 +11753,7 @@
         <v>19</v>
       </c>
       <c r="B848" s="51"/>
-      <c r="C848" s="33" t="s">
+      <c r="C848" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D848" s="51"/>
@@ -11760,7 +11766,7 @@
         <v>19</v>
       </c>
       <c r="B849" s="51"/>
-      <c r="C849" s="33" t="s">
+      <c r="C849" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D849" s="51"/>
@@ -11773,7 +11779,7 @@
         <v>19</v>
       </c>
       <c r="B850" s="51"/>
-      <c r="C850" s="31" t="s">
+      <c r="C850" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D850" s="51"/>
@@ -11786,7 +11792,7 @@
         <v>19</v>
       </c>
       <c r="B851" s="51"/>
-      <c r="C851" s="31" t="s">
+      <c r="C851" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D851" s="51"/>
@@ -11799,7 +11805,7 @@
         <v>19</v>
       </c>
       <c r="B852" s="51"/>
-      <c r="C852" s="31" t="s">
+      <c r="C852" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D852" s="51"/>
@@ -11812,7 +11818,7 @@
         <v>19</v>
       </c>
       <c r="B853" s="51"/>
-      <c r="C853" s="31" t="s">
+      <c r="C853" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D853" s="51"/>
@@ -11825,7 +11831,7 @@
         <v>19</v>
       </c>
       <c r="B854" s="51"/>
-      <c r="C854" s="31" t="s">
+      <c r="C854" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D854" s="51"/>
@@ -11838,7 +11844,7 @@
         <v>19</v>
       </c>
       <c r="B855" s="51"/>
-      <c r="C855" s="31" t="s">
+      <c r="C855" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D855" s="51"/>
@@ -11851,7 +11857,7 @@
         <v>19</v>
       </c>
       <c r="B856" s="51"/>
-      <c r="C856" s="31" t="s">
+      <c r="C856" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D856" s="51"/>
@@ -11864,7 +11870,7 @@
         <v>19</v>
       </c>
       <c r="B857" s="51"/>
-      <c r="C857" s="31" t="s">
+      <c r="C857" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D857" s="51"/>
@@ -11877,7 +11883,7 @@
         <v>19</v>
       </c>
       <c r="B858" s="51"/>
-      <c r="C858" s="31" t="s">
+      <c r="C858" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D858" s="51"/>
@@ -11890,7 +11896,7 @@
         <v>19</v>
       </c>
       <c r="B859" s="51"/>
-      <c r="C859" s="33" t="s">
+      <c r="C859" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D859" s="51"/>
@@ -11903,7 +11909,7 @@
         <v>19</v>
       </c>
       <c r="B860" s="51"/>
-      <c r="C860" s="33" t="s">
+      <c r="C860" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D860" s="51"/>
@@ -11916,7 +11922,7 @@
         <v>19</v>
       </c>
       <c r="B861" s="51"/>
-      <c r="C861" s="31" t="s">
+      <c r="C861" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D861" s="51"/>
@@ -11929,7 +11935,7 @@
         <v>19</v>
       </c>
       <c r="B862" s="51"/>
-      <c r="C862" s="31" t="s">
+      <c r="C862" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D862" s="51"/>
@@ -11942,7 +11948,7 @@
         <v>19</v>
       </c>
       <c r="B863" s="51"/>
-      <c r="C863" s="31" t="s">
+      <c r="C863" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D863" s="51"/>
@@ -11955,7 +11961,7 @@
         <v>19</v>
       </c>
       <c r="B864" s="51"/>
-      <c r="C864" s="31" t="s">
+      <c r="C864" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D864" s="51"/>
@@ -11968,7 +11974,7 @@
         <v>19</v>
       </c>
       <c r="B865" s="51"/>
-      <c r="C865" s="31" t="s">
+      <c r="C865" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D865" s="51"/>
@@ -11981,7 +11987,7 @@
         <v>19</v>
       </c>
       <c r="B866" s="51"/>
-      <c r="C866" s="31" t="s">
+      <c r="C866" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D866" s="51"/>
@@ -11994,7 +12000,7 @@
         <v>19</v>
       </c>
       <c r="B867" s="51"/>
-      <c r="C867" s="31" t="s">
+      <c r="C867" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D867" s="51"/>
@@ -12007,7 +12013,7 @@
         <v>19</v>
       </c>
       <c r="B868" s="51"/>
-      <c r="C868" s="31" t="s">
+      <c r="C868" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D868" s="51"/>
@@ -12020,7 +12026,7 @@
         <v>19</v>
       </c>
       <c r="B869" s="51"/>
-      <c r="C869" s="31" t="s">
+      <c r="C869" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D869" s="51"/>
@@ -12033,7 +12039,7 @@
         <v>19</v>
       </c>
       <c r="B870" s="51"/>
-      <c r="C870" s="33" t="s">
+      <c r="C870" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D870" s="51"/>
@@ -12046,7 +12052,7 @@
         <v>19</v>
       </c>
       <c r="B871" s="51"/>
-      <c r="C871" s="33" t="s">
+      <c r="C871" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D871" s="51"/>
@@ -12059,7 +12065,7 @@
         <v>19</v>
       </c>
       <c r="B872" s="51"/>
-      <c r="C872" s="31" t="s">
+      <c r="C872" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D872" s="31" t="s">
@@ -12074,7 +12080,7 @@
         <v>19</v>
       </c>
       <c r="B873" s="51"/>
-      <c r="C873" s="31" t="s">
+      <c r="C873" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D873" s="31" t="s">
@@ -12089,7 +12095,7 @@
         <v>19</v>
       </c>
       <c r="B874" s="51"/>
-      <c r="C874" s="31" t="s">
+      <c r="C874" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D874" s="31" t="s">
@@ -12104,7 +12110,7 @@
         <v>19</v>
       </c>
       <c r="B875" s="51"/>
-      <c r="C875" s="31" t="s">
+      <c r="C875" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D875" s="31" t="s">
@@ -12117,7 +12123,7 @@
     <row r="876" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A876" s="34"/>
       <c r="B876" s="51"/>
-      <c r="C876" s="31" t="s">
+      <c r="C876" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D876" s="31" t="s">
@@ -12132,7 +12138,7 @@
         <v>19</v>
       </c>
       <c r="B877" s="51"/>
-      <c r="C877" s="31" t="s">
+      <c r="C877" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D877" s="31" t="s">
@@ -12147,7 +12153,7 @@
         <v>19</v>
       </c>
       <c r="B878" s="51"/>
-      <c r="C878" s="31" t="s">
+      <c r="C878" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D878" s="31" t="s">
@@ -12162,7 +12168,7 @@
         <v>19</v>
       </c>
       <c r="B879" s="51"/>
-      <c r="C879" s="31" t="s">
+      <c r="C879" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D879" s="31" t="s">
@@ -12177,7 +12183,7 @@
         <v>19</v>
       </c>
       <c r="B880" s="51"/>
-      <c r="C880" s="31" t="s">
+      <c r="C880" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D880" s="31" t="s">
@@ -12192,7 +12198,7 @@
         <v>19</v>
       </c>
       <c r="B881" s="51"/>
-      <c r="C881" s="33" t="s">
+      <c r="C881" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D881" s="33" t="s">
@@ -12207,7 +12213,7 @@
         <v>19</v>
       </c>
       <c r="B882" s="51"/>
-      <c r="C882" s="33" t="s">
+      <c r="C882" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D882" s="33" t="s">
@@ -12222,7 +12228,7 @@
         <v>19</v>
       </c>
       <c r="B883" s="51"/>
-      <c r="C883" s="31" t="s">
+      <c r="C883" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D883" s="31" t="s">
@@ -12237,7 +12243,7 @@
         <v>19</v>
       </c>
       <c r="B884" s="51"/>
-      <c r="C884" s="31" t="s">
+      <c r="C884" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D884" s="31" t="s">
@@ -12252,7 +12258,7 @@
         <v>19</v>
       </c>
       <c r="B885" s="51"/>
-      <c r="C885" s="31" t="s">
+      <c r="C885" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D885" s="31" t="s">
@@ -12267,7 +12273,7 @@
         <v>19</v>
       </c>
       <c r="B886" s="51"/>
-      <c r="C886" s="31" t="s">
+      <c r="C886" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D886" s="31" t="s">
@@ -12282,7 +12288,7 @@
         <v>19</v>
       </c>
       <c r="B887" s="51"/>
-      <c r="C887" s="31" t="s">
+      <c r="C887" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D887" s="31" t="s">
@@ -12297,7 +12303,7 @@
         <v>19</v>
       </c>
       <c r="B888" s="51"/>
-      <c r="C888" s="31" t="s">
+      <c r="C888" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D888" s="31" t="s">
@@ -12312,7 +12318,7 @@
         <v>19</v>
       </c>
       <c r="B889" s="51"/>
-      <c r="C889" s="31" t="s">
+      <c r="C889" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D889" s="31" t="s">
@@ -12327,7 +12333,7 @@
         <v>19</v>
       </c>
       <c r="B890" s="51"/>
-      <c r="C890" s="31" t="s">
+      <c r="C890" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D890" s="31" t="s">
@@ -12342,7 +12348,7 @@
         <v>19</v>
       </c>
       <c r="B891" s="51"/>
-      <c r="C891" s="31" t="s">
+      <c r="C891" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D891" s="31" t="s">
@@ -12357,7 +12363,7 @@
         <v>19</v>
       </c>
       <c r="B892" s="51"/>
-      <c r="C892" s="33" t="s">
+      <c r="C892" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D892" s="33" t="s">
@@ -12372,7 +12378,7 @@
         <v>19</v>
       </c>
       <c r="B893" s="51"/>
-      <c r="C893" s="33" t="s">
+      <c r="C893" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D893" s="33" t="s">
@@ -12387,7 +12393,7 @@
         <v>19</v>
       </c>
       <c r="B894" s="51"/>
-      <c r="C894" s="31" t="s">
+      <c r="C894" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D894" s="31" t="s">
@@ -12402,7 +12408,7 @@
         <v>19</v>
       </c>
       <c r="B895" s="51"/>
-      <c r="C895" s="31" t="s">
+      <c r="C895" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D895" s="31" t="s">
@@ -12417,7 +12423,7 @@
         <v>19</v>
       </c>
       <c r="B896" s="51"/>
-      <c r="C896" s="31" t="s">
+      <c r="C896" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D896" s="31" t="s">
@@ -12432,7 +12438,7 @@
         <v>19</v>
       </c>
       <c r="B897" s="51"/>
-      <c r="C897" s="31" t="s">
+      <c r="C897" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D897" s="31" t="s">
@@ -12447,7 +12453,7 @@
         <v>19</v>
       </c>
       <c r="B898" s="51"/>
-      <c r="C898" s="31" t="s">
+      <c r="C898" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D898" s="31" t="s">
@@ -12462,7 +12468,7 @@
         <v>19</v>
       </c>
       <c r="B899" s="51"/>
-      <c r="C899" s="31" t="s">
+      <c r="C899" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D899" s="31" t="s">
@@ -12477,7 +12483,7 @@
         <v>19</v>
       </c>
       <c r="B900" s="51"/>
-      <c r="C900" s="31" t="s">
+      <c r="C900" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D900" s="31" t="s">
@@ -12492,7 +12498,7 @@
         <v>19</v>
       </c>
       <c r="B901" s="51"/>
-      <c r="C901" s="31" t="s">
+      <c r="C901" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D901" s="31" t="s">
@@ -12507,7 +12513,7 @@
         <v>19</v>
       </c>
       <c r="B902" s="51"/>
-      <c r="C902" s="31" t="s">
+      <c r="C902" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D902" s="31" t="s">
@@ -12522,7 +12528,7 @@
         <v>19</v>
       </c>
       <c r="B903" s="51"/>
-      <c r="C903" s="33" t="s">
+      <c r="C903" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D903" s="33" t="s">
@@ -12537,7 +12543,7 @@
         <v>19</v>
       </c>
       <c r="B904" s="51"/>
-      <c r="C904" s="33" t="s">
+      <c r="C904" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D904" s="33" t="s">
@@ -12552,7 +12558,7 @@
         <v>19</v>
       </c>
       <c r="B905" s="51"/>
-      <c r="C905" s="31" t="s">
+      <c r="C905" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D905" s="31" t="s">
@@ -12567,7 +12573,7 @@
         <v>19</v>
       </c>
       <c r="B906" s="51"/>
-      <c r="C906" s="31" t="s">
+      <c r="C906" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D906" s="31" t="s">
@@ -12580,7 +12586,7 @@
     <row r="907" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A907" s="34"/>
       <c r="B907" s="51"/>
-      <c r="C907" s="31" t="s">
+      <c r="C907" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D907" s="31" t="s">
@@ -12595,7 +12601,7 @@
         <v>19</v>
       </c>
       <c r="B908" s="51"/>
-      <c r="C908" s="31" t="s">
+      <c r="C908" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D908" s="31" t="s">
@@ -12610,7 +12616,7 @@
         <v>19</v>
       </c>
       <c r="B909" s="51"/>
-      <c r="C909" s="31" t="s">
+      <c r="C909" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D909" s="31" t="s">
@@ -12625,7 +12631,7 @@
         <v>19</v>
       </c>
       <c r="B910" s="51"/>
-      <c r="C910" s="31" t="s">
+      <c r="C910" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D910" s="31" t="s">
@@ -12640,7 +12646,7 @@
         <v>19</v>
       </c>
       <c r="B911" s="51"/>
-      <c r="C911" s="31" t="s">
+      <c r="C911" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D911" s="31" t="s">
@@ -12655,7 +12661,7 @@
         <v>19</v>
       </c>
       <c r="B912" s="51"/>
-      <c r="C912" s="31" t="s">
+      <c r="C912" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D912" s="31" t="s">
@@ -12670,7 +12676,7 @@
         <v>19</v>
       </c>
       <c r="B913" s="51"/>
-      <c r="C913" s="31" t="s">
+      <c r="C913" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D913" s="31" t="s">
@@ -12685,7 +12691,7 @@
         <v>19</v>
       </c>
       <c r="B914" s="51"/>
-      <c r="C914" s="33" t="s">
+      <c r="C914" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D914" s="33" t="s">
@@ -12700,7 +12706,7 @@
         <v>19</v>
       </c>
       <c r="B915" s="51"/>
-      <c r="C915" s="33" t="s">
+      <c r="C915" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D915" s="33" t="s">
@@ -12715,7 +12721,7 @@
         <v>19</v>
       </c>
       <c r="B916" s="51"/>
-      <c r="C916" s="31" t="s">
+      <c r="C916" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D916" s="31" t="s">
@@ -12730,7 +12736,7 @@
         <v>19</v>
       </c>
       <c r="B917" s="51"/>
-      <c r="C917" s="31" t="s">
+      <c r="C917" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D917" s="31" t="s">
@@ -12745,7 +12751,7 @@
         <v>19</v>
       </c>
       <c r="B918" s="51"/>
-      <c r="C918" s="31" t="s">
+      <c r="C918" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D918" s="31" t="s">
@@ -12760,7 +12766,7 @@
         <v>19</v>
       </c>
       <c r="B919" s="51"/>
-      <c r="C919" s="31" t="s">
+      <c r="C919" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D919" s="31" t="s">
@@ -12775,7 +12781,7 @@
         <v>19</v>
       </c>
       <c r="B920" s="51"/>
-      <c r="C920" s="31" t="s">
+      <c r="C920" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D920" s="31" t="s">
@@ -12790,7 +12796,7 @@
         <v>19</v>
       </c>
       <c r="B921" s="51"/>
-      <c r="C921" s="31" t="s">
+      <c r="C921" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D921" s="31" t="s">
@@ -12805,7 +12811,7 @@
         <v>19</v>
       </c>
       <c r="B922" s="51"/>
-      <c r="C922" s="31" t="s">
+      <c r="C922" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D922" s="31" t="s">
@@ -12820,7 +12826,7 @@
         <v>19</v>
       </c>
       <c r="B923" s="51"/>
-      <c r="C923" s="31" t="s">
+      <c r="C923" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D923" s="31" t="s">
@@ -12835,7 +12841,7 @@
         <v>19</v>
       </c>
       <c r="B924" s="51"/>
-      <c r="C924" s="31" t="s">
+      <c r="C924" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D924" s="31" t="s">
@@ -12850,7 +12856,7 @@
         <v>19</v>
       </c>
       <c r="B925" s="51"/>
-      <c r="C925" s="33" t="s">
+      <c r="C925" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D925" s="33" t="s">
@@ -12865,7 +12871,7 @@
         <v>19</v>
       </c>
       <c r="B926" s="51"/>
-      <c r="C926" s="33" t="s">
+      <c r="C926" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D926" s="33" t="s">
@@ -12880,7 +12886,7 @@
         <v>19</v>
       </c>
       <c r="B927" s="51"/>
-      <c r="C927" s="31" t="s">
+      <c r="C927" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D927" s="31" t="s">
@@ -12895,7 +12901,7 @@
         <v>19</v>
       </c>
       <c r="B928" s="51"/>
-      <c r="C928" s="31" t="s">
+      <c r="C928" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D928" s="31" t="s">
@@ -12910,7 +12916,7 @@
         <v>19</v>
       </c>
       <c r="B929" s="51"/>
-      <c r="C929" s="31" t="s">
+      <c r="C929" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D929" s="31" t="s">
@@ -12925,7 +12931,7 @@
         <v>19</v>
       </c>
       <c r="B930" s="51"/>
-      <c r="C930" s="31" t="s">
+      <c r="C930" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D930" s="31" t="s">
@@ -12940,7 +12946,7 @@
         <v>19</v>
       </c>
       <c r="B931" s="51"/>
-      <c r="C931" s="31" t="s">
+      <c r="C931" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D931" s="31" t="s">
@@ -12955,7 +12961,7 @@
         <v>19</v>
       </c>
       <c r="B932" s="51"/>
-      <c r="C932" s="31" t="s">
+      <c r="C932" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D932" s="31" t="s">
@@ -12970,7 +12976,7 @@
         <v>19</v>
       </c>
       <c r="B933" s="51"/>
-      <c r="C933" s="31" t="s">
+      <c r="C933" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D933" s="31" t="s">
@@ -12985,7 +12991,7 @@
         <v>19</v>
       </c>
       <c r="B934" s="51"/>
-      <c r="C934" s="31" t="s">
+      <c r="C934" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D934" s="31" t="s">
@@ -13000,7 +13006,7 @@
         <v>19</v>
       </c>
       <c r="B935" s="51"/>
-      <c r="C935" s="31" t="s">
+      <c r="C935" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D935" s="31" t="s">
@@ -13015,7 +13021,7 @@
         <v>19</v>
       </c>
       <c r="B936" s="51"/>
-      <c r="C936" s="33" t="s">
+      <c r="C936" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D936" s="33" t="s">
@@ -13030,7 +13036,7 @@
         <v>19</v>
       </c>
       <c r="B937" s="51"/>
-      <c r="C937" s="33" t="s">
+      <c r="C937" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D937" s="33" t="s">
@@ -13045,7 +13051,7 @@
         <v>19</v>
       </c>
       <c r="B938" s="51"/>
-      <c r="C938" s="31" t="s">
+      <c r="C938" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D938" s="31" t="s">
@@ -13060,7 +13066,7 @@
         <v>19</v>
       </c>
       <c r="B939" s="51"/>
-      <c r="C939" s="31" t="s">
+      <c r="C939" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D939" s="31" t="s">
@@ -13075,7 +13081,7 @@
         <v>19</v>
       </c>
       <c r="B940" s="51"/>
-      <c r="C940" s="31" t="s">
+      <c r="C940" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D940" s="31" t="s">
@@ -13090,7 +13096,7 @@
         <v>19</v>
       </c>
       <c r="B941" s="51"/>
-      <c r="C941" s="31" t="s">
+      <c r="C941" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D941" s="31" t="s">
@@ -13105,7 +13111,7 @@
         <v>19</v>
       </c>
       <c r="B942" s="51"/>
-      <c r="C942" s="31" t="s">
+      <c r="C942" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D942" s="31" t="s">
@@ -13120,7 +13126,7 @@
         <v>19</v>
       </c>
       <c r="B943" s="51"/>
-      <c r="C943" s="31" t="s">
+      <c r="C943" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D943" s="31" t="s">
@@ -13135,7 +13141,7 @@
         <v>19</v>
       </c>
       <c r="B944" s="51"/>
-      <c r="C944" s="31" t="s">
+      <c r="C944" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D944" s="31" t="s">
@@ -13150,7 +13156,7 @@
         <v>19</v>
       </c>
       <c r="B945" s="51"/>
-      <c r="C945" s="31" t="s">
+      <c r="C945" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D945" s="31" t="s">
@@ -13165,7 +13171,7 @@
         <v>19</v>
       </c>
       <c r="B946" s="51"/>
-      <c r="C946" s="31" t="s">
+      <c r="C946" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D946" s="31" t="s">
@@ -13180,7 +13186,7 @@
         <v>19</v>
       </c>
       <c r="B947" s="51"/>
-      <c r="C947" s="33" t="s">
+      <c r="C947" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D947" s="33" t="s">
@@ -13195,7 +13201,7 @@
         <v>19</v>
       </c>
       <c r="B948" s="51"/>
-      <c r="C948" s="33" t="s">
+      <c r="C948" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D948" s="33" t="s">
@@ -13210,7 +13216,7 @@
         <v>19</v>
       </c>
       <c r="B949" s="51"/>
-      <c r="C949" s="31" t="s">
+      <c r="C949" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D949" s="31" t="s">
@@ -13225,7 +13231,7 @@
         <v>19</v>
       </c>
       <c r="B950" s="51"/>
-      <c r="C950" s="31" t="s">
+      <c r="C950" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D950" s="31" t="s">
@@ -13240,7 +13246,7 @@
         <v>19</v>
       </c>
       <c r="B951" s="51"/>
-      <c r="C951" s="31" t="s">
+      <c r="C951" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D951" s="31" t="s">
@@ -13255,7 +13261,7 @@
         <v>19</v>
       </c>
       <c r="B952" s="51"/>
-      <c r="C952" s="31" t="s">
+      <c r="C952" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D952" s="31" t="s">
@@ -13270,7 +13276,7 @@
         <v>19</v>
       </c>
       <c r="B953" s="51"/>
-      <c r="C953" s="31" t="s">
+      <c r="C953" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D953" s="31" t="s">
@@ -13285,7 +13291,7 @@
         <v>19</v>
       </c>
       <c r="B954" s="51"/>
-      <c r="C954" s="31" t="s">
+      <c r="C954" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D954" s="31" t="s">
@@ -13300,7 +13306,7 @@
         <v>19</v>
       </c>
       <c r="B955" s="51"/>
-      <c r="C955" s="31" t="s">
+      <c r="C955" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D955" s="31" t="s">
@@ -13315,7 +13321,7 @@
         <v>19</v>
       </c>
       <c r="B956" s="51"/>
-      <c r="C956" s="31" t="s">
+      <c r="C956" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D956" s="31" t="s">
@@ -13330,7 +13336,7 @@
         <v>19</v>
       </c>
       <c r="B957" s="51"/>
-      <c r="C957" s="31" t="s">
+      <c r="C957" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D957" s="31" t="s">
@@ -13345,7 +13351,7 @@
         <v>19</v>
       </c>
       <c r="B958" s="51"/>
-      <c r="C958" s="33" t="s">
+      <c r="C958" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D958" s="33" t="s">
@@ -13360,7 +13366,7 @@
         <v>19</v>
       </c>
       <c r="B959" s="51"/>
-      <c r="C959" s="33" t="s">
+      <c r="C959" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D959" s="33" t="s">
@@ -13375,7 +13381,7 @@
         <v>19</v>
       </c>
       <c r="B960" s="51"/>
-      <c r="C960" s="31" t="s">
+      <c r="C960" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D960" s="31" t="s">
@@ -13390,7 +13396,7 @@
         <v>19</v>
       </c>
       <c r="B961" s="51"/>
-      <c r="C961" s="31" t="s">
+      <c r="C961" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D961" s="31" t="s">
@@ -13405,7 +13411,7 @@
         <v>19</v>
       </c>
       <c r="B962" s="51"/>
-      <c r="C962" s="31" t="s">
+      <c r="C962" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D962" s="31" t="s">
@@ -13420,7 +13426,7 @@
         <v>19</v>
       </c>
       <c r="B963" s="51"/>
-      <c r="C963" s="31" t="s">
+      <c r="C963" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D963" s="31" t="s">
@@ -13435,7 +13441,7 @@
         <v>19</v>
       </c>
       <c r="B964" s="51"/>
-      <c r="C964" s="31" t="s">
+      <c r="C964" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D964" s="31" t="s">
@@ -13450,7 +13456,7 @@
         <v>19</v>
       </c>
       <c r="B965" s="51"/>
-      <c r="C965" s="31" t="s">
+      <c r="C965" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D965" s="31" t="s">
@@ -13465,7 +13471,7 @@
         <v>19</v>
       </c>
       <c r="B966" s="51"/>
-      <c r="C966" s="31" t="s">
+      <c r="C966" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D966" s="31" t="s">
@@ -13478,7 +13484,7 @@
     <row r="967" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A967" s="34"/>
       <c r="B967" s="51"/>
-      <c r="C967" s="31" t="s">
+      <c r="C967" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D967" s="31" t="s">
@@ -13493,7 +13499,7 @@
         <v>19</v>
       </c>
       <c r="B968" s="51"/>
-      <c r="C968" s="31" t="s">
+      <c r="C968" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D968" s="31" t="s">
@@ -13508,7 +13514,7 @@
         <v>19</v>
       </c>
       <c r="B969" s="51"/>
-      <c r="C969" s="33" t="s">
+      <c r="C969" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D969" s="33" t="s">
@@ -13523,7 +13529,7 @@
         <v>19</v>
       </c>
       <c r="B970" s="51"/>
-      <c r="C970" s="33" t="s">
+      <c r="C970" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D970" s="33" t="s">
@@ -13538,7 +13544,7 @@
         <v>19</v>
       </c>
       <c r="B971" s="51"/>
-      <c r="C971" s="31" t="s">
+      <c r="C971" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D971" s="31" t="s">
@@ -13553,7 +13559,7 @@
         <v>19</v>
       </c>
       <c r="B972" s="51"/>
-      <c r="C972" s="31" t="s">
+      <c r="C972" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D972" s="31" t="s">
@@ -13568,7 +13574,7 @@
         <v>19</v>
       </c>
       <c r="B973" s="51"/>
-      <c r="C973" s="31" t="s">
+      <c r="C973" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D973" s="31" t="s">
@@ -13583,7 +13589,7 @@
         <v>19</v>
       </c>
       <c r="B974" s="51"/>
-      <c r="C974" s="31" t="s">
+      <c r="C974" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D974" s="31" t="s">
@@ -13598,7 +13604,7 @@
         <v>19</v>
       </c>
       <c r="B975" s="51"/>
-      <c r="C975" s="31" t="s">
+      <c r="C975" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D975" s="31" t="s">
@@ -13613,7 +13619,7 @@
         <v>19</v>
       </c>
       <c r="B976" s="51"/>
-      <c r="C976" s="31" t="s">
+      <c r="C976" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D976" s="31" t="s">
@@ -13628,7 +13634,7 @@
         <v>19</v>
       </c>
       <c r="B977" s="51"/>
-      <c r="C977" s="31" t="s">
+      <c r="C977" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D977" s="31" t="s">
@@ -13643,7 +13649,7 @@
         <v>19</v>
       </c>
       <c r="B978" s="51"/>
-      <c r="C978" s="31" t="s">
+      <c r="C978" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D978" s="31" t="s">
@@ -13658,7 +13664,7 @@
         <v>19</v>
       </c>
       <c r="B979" s="51"/>
-      <c r="C979" s="31" t="s">
+      <c r="C979" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D979" s="31" t="s">
@@ -13673,7 +13679,7 @@
         <v>19</v>
       </c>
       <c r="B980" s="51"/>
-      <c r="C980" s="33" t="s">
+      <c r="C980" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D980" s="33" t="s">
@@ -13688,7 +13694,7 @@
         <v>19</v>
       </c>
       <c r="B981" s="51"/>
-      <c r="C981" s="33" t="s">
+      <c r="C981" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D981" s="33" t="s">
@@ -13703,7 +13709,7 @@
         <v>19</v>
       </c>
       <c r="B982" s="51"/>
-      <c r="C982" s="31" t="s">
+      <c r="C982" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D982" s="31" t="s">
@@ -13718,7 +13724,7 @@
         <v>19</v>
       </c>
       <c r="B983" s="51"/>
-      <c r="C983" s="31" t="s">
+      <c r="C983" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D983" s="31" t="s">
@@ -13733,7 +13739,7 @@
         <v>19</v>
       </c>
       <c r="B984" s="51"/>
-      <c r="C984" s="31" t="s">
+      <c r="C984" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D984" s="31" t="s">
@@ -13748,7 +13754,7 @@
         <v>19</v>
       </c>
       <c r="B985" s="51"/>
-      <c r="C985" s="31" t="s">
+      <c r="C985" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D985" s="31" t="s">
@@ -13763,7 +13769,7 @@
         <v>19</v>
       </c>
       <c r="B986" s="51"/>
-      <c r="C986" s="31" t="s">
+      <c r="C986" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D986" s="31" t="s">
@@ -13778,7 +13784,7 @@
         <v>19</v>
       </c>
       <c r="B987" s="51"/>
-      <c r="C987" s="31" t="s">
+      <c r="C987" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D987" s="31" t="s">
@@ -13793,7 +13799,7 @@
         <v>19</v>
       </c>
       <c r="B988" s="51"/>
-      <c r="C988" s="31" t="s">
+      <c r="C988" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D988" s="31" t="s">
@@ -13808,7 +13814,7 @@
         <v>19</v>
       </c>
       <c r="B989" s="51"/>
-      <c r="C989" s="31" t="s">
+      <c r="C989" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D989" s="31" t="s">
@@ -13823,7 +13829,7 @@
         <v>19</v>
       </c>
       <c r="B990" s="51"/>
-      <c r="C990" s="31" t="s">
+      <c r="C990" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D990" s="31" t="s">
@@ -13838,7 +13844,7 @@
         <v>19</v>
       </c>
       <c r="B991" s="51"/>
-      <c r="C991" s="33" t="s">
+      <c r="C991" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D991" s="33" t="s">
@@ -13853,7 +13859,7 @@
         <v>19</v>
       </c>
       <c r="B992" s="51"/>
-      <c r="C992" s="33" t="s">
+      <c r="C992" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D992" s="33" t="s">
@@ -13868,7 +13874,7 @@
         <v>19</v>
       </c>
       <c r="B993" s="51"/>
-      <c r="C993" s="31" t="s">
+      <c r="C993" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D993" s="31" t="s">
@@ -13883,7 +13889,7 @@
         <v>19</v>
       </c>
       <c r="B994" s="51"/>
-      <c r="C994" s="31" t="s">
+      <c r="C994" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D994" s="31" t="s">
@@ -13898,7 +13904,7 @@
         <v>19</v>
       </c>
       <c r="B995" s="51"/>
-      <c r="C995" s="31" t="s">
+      <c r="C995" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D995" s="31" t="s">
@@ -13913,7 +13919,7 @@
         <v>19</v>
       </c>
       <c r="B996" s="51"/>
-      <c r="C996" s="31" t="s">
+      <c r="C996" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D996" s="31" t="s">
@@ -13928,7 +13934,7 @@
         <v>19</v>
       </c>
       <c r="B997" s="51"/>
-      <c r="C997" s="31" t="s">
+      <c r="C997" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D997" s="31" t="s">
@@ -13941,7 +13947,7 @@
     <row r="998" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A998" s="34"/>
       <c r="B998" s="51"/>
-      <c r="C998" s="31" t="s">
+      <c r="C998" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D998" s="31" t="s">
@@ -13956,7 +13962,7 @@
         <v>19</v>
       </c>
       <c r="B999" s="51"/>
-      <c r="C999" s="31" t="s">
+      <c r="C999" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D999" s="31" t="s">
@@ -13971,7 +13977,7 @@
         <v>19</v>
       </c>
       <c r="B1000" s="51"/>
-      <c r="C1000" s="31" t="s">
+      <c r="C1000" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D1000" s="31" t="s">
@@ -13986,234 +13992,260 @@
         <v>19</v>
       </c>
       <c r="B1001" s="51"/>
+      <c r="C1001" s="53"/>
     </row>
     <row r="1002" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1002" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1002" s="51"/>
+      <c r="C1002" s="53"/>
     </row>
     <row r="1003" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1003" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1003" s="51"/>
+      <c r="C1003" s="53"/>
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1004" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1004" s="51"/>
+      <c r="C1004" s="53"/>
     </row>
     <row r="1005" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1005" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1005" s="51"/>
+      <c r="C1005" s="53"/>
     </row>
     <row r="1006" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1006" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1006" s="51"/>
+      <c r="C1006" s="53"/>
     </row>
     <row r="1007" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1007" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1007" s="51"/>
+      <c r="C1007" s="53"/>
     </row>
     <row r="1008" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1008" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1008" s="51"/>
-    </row>
-    <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1008" s="53"/>
+    </row>
+    <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1009" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1009" s="51"/>
-    </row>
-    <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1009" s="53"/>
+    </row>
+    <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1010" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1010" s="51"/>
-    </row>
-    <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1010" s="53"/>
+    </row>
+    <row r="1011" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1011" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1011" s="51"/>
-    </row>
-    <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1011" s="53"/>
+    </row>
+    <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1012" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1012" s="51"/>
-    </row>
-    <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1012" s="53"/>
+    </row>
+    <row r="1013" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1013" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1013" s="51"/>
-    </row>
-    <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1013" s="53"/>
+    </row>
+    <row r="1014" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1014" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1014" s="51"/>
-    </row>
-    <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1014" s="53"/>
+    </row>
+    <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1015" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1015" s="51"/>
-    </row>
-    <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1015" s="53"/>
+    </row>
+    <row r="1016" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1016" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1016" s="51"/>
-    </row>
-    <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1016" s="53"/>
+    </row>
+    <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1017" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1017" s="51"/>
-    </row>
-    <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1017" s="53"/>
+    </row>
+    <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1018" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1018" s="51"/>
-    </row>
-    <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1018" s="53"/>
+    </row>
+    <row r="1019" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1019" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1019" s="51"/>
-    </row>
-    <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1019" s="53"/>
+    </row>
+    <row r="1020" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1020" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1020" s="51"/>
-    </row>
-    <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1020" s="53"/>
+    </row>
+    <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1021" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1021" s="51"/>
-    </row>
-    <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1021" s="53"/>
+    </row>
+    <row r="1022" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1022" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1022" s="51"/>
-    </row>
-    <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1022" s="53"/>
+    </row>
+    <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1023" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1023" s="51"/>
-    </row>
-    <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1023" s="53"/>
+    </row>
+    <row r="1024" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1024" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1024" s="51"/>
-    </row>
-    <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1024" s="53"/>
+    </row>
+    <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1025" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1025" s="51"/>
-    </row>
-    <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1025" s="53"/>
+    </row>
+    <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1026" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1026" s="51"/>
-    </row>
-    <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1026" s="53"/>
+    </row>
+    <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1027" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1027" s="51"/>
     </row>
-    <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1028" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1028" s="51"/>
     </row>
-    <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1029" s="34"/>
       <c r="B1029" s="51"/>
     </row>
-    <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1030" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1030" s="51"/>
     </row>
-    <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1031" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1031" s="51"/>
     </row>
-    <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1032" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1032" s="51"/>
     </row>
-    <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1033" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1033" s="51"/>
     </row>
-    <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1034" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1034" s="51"/>
     </row>
-    <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1035" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1035" s="51"/>
     </row>
-    <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1036" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1036" s="51"/>
     </row>
-    <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1037" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1037" s="51"/>
     </row>
-    <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1038" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1038" s="51"/>
     </row>
-    <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1039" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B1039" s="51"/>
     </row>
-    <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1040" s="34" t="s">
         <v>19</v>
       </c>

--- a/rtw_excel_report/report_purchase_order/purchase_order.xlsx
+++ b/rtw_excel_report/report_purchase_order/purchase_order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_purchase_order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4C00AA-B836-4E89-AB71-3AEE9B9F8726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16460CBF-92B2-4AB1-8544-8FB0C4FD4ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="645" windowWidth="17535" windowHeight="13710" xr2:uid="{87026D75-22F8-4D72-BF0C-E712625044A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{87026D75-22F8-4D72-BF0C-E712625044A4}"/>
   </bookViews>
   <sheets>
     <sheet name="注文書" sheetId="1" r:id="rId1"/>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14C7CB3-6D80-465D-9733-A42AF6F1827F}">
   <dimension ref="A1:H1120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
